--- a/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
+++ b/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
@@ -377,1322 +377,1322 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001591906766407192</v>
+        <v>0.0001587711012689397</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.0001592685002833605</v>
+        <v>0.000158808208652772</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.0001592685002833605</v>
+        <v>0.000158808208652772</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.0001592685002833605</v>
+        <v>0.0001587711012689397</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.0001592685002833605</v>
+        <v>0.0001587711012689397</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.0001592685002833605</v>
+        <v>0.0001587711012689397</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.0001592685002833605</v>
+        <v>0.0001587711012689397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.0002243664785055444</v>
+        <v>0.0002417498035356402</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.001255553448572755</v>
+        <v>0.001283963210880756</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.08273930102586746</v>
+        <v>0.1349525153636932</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.2456095516681671</v>
+        <v>0.4151575267314911</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.322087824344635</v>
+        <v>0.6436352133750916</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3467100262641907</v>
+        <v>0.7824594974517822</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4472804069519043</v>
+        <v>0.7927851676940918</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4335361421108246</v>
+        <v>0.6883428692817688</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.3141507506370544</v>
+        <v>0.5038387179374695</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.1101366803050041</v>
+        <v>0.2009968012571335</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.0001748943759594113</v>
+        <v>0.0001705784234218299</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.000159033530508168</v>
+        <v>0.0001586507423780859</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.0001589488383615389</v>
+        <v>0.0001586507423780859</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.0001589964231243357</v>
+        <v>0.0001587016158737242</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.0001589964231243357</v>
+        <v>0.0001587016158737242</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.0001589964231243357</v>
+        <v>0.0001587016158737242</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.0001589964231243357</v>
+        <v>0.0001587016158737242</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.0001592382614035159</v>
+        <v>0.0001589434541529045</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>0.0001592382614035159</v>
+        <v>0.0001587506121722981</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28">
-        <v>0.0001592382614035159</v>
+        <v>0.0001576685026520863</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.0001592382614035159</v>
+        <v>0.0001577629736857489</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.0001592382614035159</v>
+        <v>0.0001572695473441854</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31">
-        <v>0.0001592382614035159</v>
+        <v>0.0001577629736857489</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>0.0001592382614035159</v>
+        <v>0.0001577629736857489</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>0.0002243361814180389</v>
+        <v>0.0002407471183687449</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
       <c r="C34">
-        <v>0.002362021943554282</v>
+        <v>0.002428500447422266</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
       <c r="C35">
-        <v>0.1272299140691757</v>
+        <v>0.3486023545265198</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B36">
         <v>10</v>
       </c>
       <c r="C36">
-        <v>0.3529269695281982</v>
+        <v>0.7825906872749329</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B37">
         <v>11</v>
       </c>
       <c r="C37">
-        <v>0.541700541973114</v>
+        <v>1.085276365280151</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B38">
         <v>12</v>
       </c>
       <c r="C38">
-        <v>0.6528680920600891</v>
+        <v>1.162951231002808</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B39">
         <v>13</v>
       </c>
       <c r="C39">
-        <v>0.6729986071586609</v>
+        <v>1.029523611068726</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B40">
         <v>14</v>
       </c>
       <c r="C40">
-        <v>0.5997073650360107</v>
+        <v>0.7472240328788757</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B41">
         <v>15</v>
       </c>
       <c r="C41">
-        <v>0.503265380859375</v>
+        <v>0.5039651393890381</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B42">
         <v>16</v>
       </c>
       <c r="C42">
-        <v>0.2580968737602234</v>
+        <v>0.208067387342453</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B43">
         <v>17</v>
       </c>
       <c r="C43">
-        <v>0.001797784119844437</v>
+        <v>0.0001705784234218299</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B44">
         <v>18</v>
       </c>
       <c r="C44">
-        <v>0.000158026407007128</v>
+        <v>0.0001587016158737242</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B45">
         <v>19</v>
       </c>
       <c r="C45">
-        <v>0.0001578730880282819</v>
+        <v>0.0001587016158737242</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B46">
         <v>20</v>
       </c>
       <c r="C46">
-        <v>0.0001578730880282819</v>
+        <v>0.0001586507423780859</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B47">
         <v>21</v>
       </c>
       <c r="C47">
-        <v>0.0001578730880282819</v>
+        <v>0.0001584973651915789</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B48">
         <v>22</v>
       </c>
       <c r="C48">
-        <v>0.0001566168502904475</v>
+        <v>0.0001584579003974795</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B49">
         <v>23</v>
       </c>
       <c r="C49">
-        <v>0.0001566168502904475</v>
+        <v>0.0001586507423780859</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0.0001568586885696277</v>
+        <v>0.0001588925806572661</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0.0001568586885696277</v>
+        <v>0.0001588925806572661</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52">
-        <v>0.0001568586885696277</v>
+        <v>0.0001588925806572661</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>0.0001568586885696277</v>
+        <v>0.0001587711012689397</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
       <c r="C54">
-        <v>0.0001567529834574088</v>
+        <v>0.0001587711012689397</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
       <c r="C55">
-        <v>0.0001589312305441126</v>
+        <v>0.0001587711012689397</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>0.0001587129518156871</v>
+        <v>0.000158808208652772</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B57">
         <v>7</v>
       </c>
       <c r="C57">
-        <v>0.0002404628176009282</v>
+        <v>0.0002417869109194726</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B58">
         <v>8</v>
       </c>
       <c r="C58">
-        <v>0.002318464685231447</v>
+        <v>0.0002317860926268622</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B59">
         <v>9</v>
       </c>
       <c r="C59">
-        <v>0.1719502657651901</v>
+        <v>0.09910106658935547</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B60">
         <v>10</v>
       </c>
       <c r="C60">
-        <v>0.4085415303707123</v>
+        <v>0.2936945855617523</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B61">
         <v>11</v>
       </c>
       <c r="C61">
-        <v>0.5514941811561584</v>
+        <v>0.4434866011142731</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B62">
         <v>12</v>
       </c>
       <c r="C62">
-        <v>0.6092909574508667</v>
+        <v>0.513696551322937</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B63">
         <v>13</v>
       </c>
       <c r="C63">
-        <v>0.5533063411712646</v>
+        <v>0.4976730942726135</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B64">
         <v>14</v>
       </c>
       <c r="C64">
-        <v>0.4617220759391785</v>
+        <v>0.4439838826656342</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B65">
         <v>15</v>
       </c>
       <c r="C65">
-        <v>0.3650880455970764</v>
+        <v>0.3074057102203369</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B66">
         <v>16</v>
       </c>
       <c r="C66">
-        <v>0.1371008008718491</v>
+        <v>0.101967953145504</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B67">
         <v>17</v>
       </c>
       <c r="C67">
-        <v>0.0001750158553477377</v>
+        <v>0.0001585292629897594</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B68">
         <v>18</v>
       </c>
       <c r="C68">
-        <v>0.0001591179025126621</v>
+        <v>0.0001585292629897594</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B69">
         <v>19</v>
       </c>
       <c r="C69">
-        <v>0.0001589229796081781</v>
+        <v>0.0001585292629897594</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B70">
         <v>20</v>
       </c>
       <c r="C70">
-        <v>0.0001588015002198517</v>
+        <v>0.0001585292629897594</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B71">
         <v>21</v>
       </c>
       <c r="C71">
-        <v>0.0001589229796081781</v>
+        <v>0.0001585292629897594</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B72">
         <v>22</v>
       </c>
       <c r="C72">
-        <v>0.0001589229796081781</v>
+        <v>0.0001585292629897594</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B73">
         <v>23</v>
       </c>
       <c r="C73">
-        <v>0.0001588015002198517</v>
+        <v>0.0001585292629897594</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0.000159043338499032</v>
+        <v>0.0001587711012689397</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>0.0001588900195201859</v>
+        <v>0.000158808208652772</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76">
-        <v>0.0001588900195201859</v>
+        <v>0.0001587235165061429</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77">
-        <v>0.0001588900195201859</v>
+        <v>0.0001587235165061429</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
       <c r="C78">
-        <v>0.0001588900195201859</v>
+        <v>0.0001587235165061429</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B79">
         <v>5</v>
       </c>
       <c r="C79">
-        <v>0.0001588900195201859</v>
+        <v>0.000158808208652772</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>0.0001589271269040182</v>
+        <v>0.000158808208652772</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B81">
         <v>7</v>
       </c>
       <c r="C81">
-        <v>0.0002358049532631412</v>
+        <v>0.0002417869109194726</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B82">
         <v>8</v>
       </c>
       <c r="C82">
-        <v>0.001234628376550972</v>
+        <v>0.0002317860926268622</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B83">
         <v>9</v>
       </c>
       <c r="C83">
-        <v>0.09947814047336578</v>
+        <v>0.08403897285461426</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B84">
         <v>10</v>
       </c>
       <c r="C84">
-        <v>0.2937994599342346</v>
+        <v>0.2655611336231232</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B85">
         <v>11</v>
       </c>
       <c r="C85">
-        <v>0.4130469858646393</v>
+        <v>0.3909583389759064</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B86">
         <v>12</v>
       </c>
       <c r="C86">
-        <v>0.4855067133903503</v>
+        <v>0.4788242280483246</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B87">
         <v>13</v>
       </c>
       <c r="C87">
-        <v>0.4980906844139099</v>
+        <v>0.4783915281295776</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B88">
         <v>14</v>
       </c>
       <c r="C88">
-        <v>0.4551751613616943</v>
+        <v>0.4268096387386322</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B89">
         <v>15</v>
       </c>
       <c r="C89">
-        <v>0.3288742303848267</v>
+        <v>0.3109486699104309</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B90">
         <v>16</v>
       </c>
       <c r="C90">
-        <v>0.1202494874596596</v>
+        <v>0.1072699427604675</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B91">
         <v>17</v>
       </c>
       <c r="C91">
-        <v>0.0001704701571725309</v>
+        <v>0.0001585801364853978</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B92">
         <v>18</v>
       </c>
       <c r="C92">
-        <v>0.0001586639555171132</v>
+        <v>0.0001585801364853978</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B93">
         <v>19</v>
       </c>
       <c r="C93">
-        <v>0.0001586507423780859</v>
+        <v>0.0001585801364853978</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B94">
         <v>20</v>
       </c>
       <c r="C94">
-        <v>0.0001586507423780859</v>
+        <v>0.0001587016158737242</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B95">
         <v>21</v>
       </c>
       <c r="C95">
-        <v>0.0001586507423780859</v>
+        <v>0.0001587016158737242</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B96">
         <v>22</v>
       </c>
       <c r="C96">
-        <v>0.0001586507423780859</v>
+        <v>0.0001587016158737242</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="B97">
         <v>23</v>
       </c>
       <c r="C97">
-        <v>0.0001584973651915789</v>
+        <v>0.0001587016158737242</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.0001587392034707591</v>
+        <v>0.0001589434541529045</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>0.0001587392034707591</v>
+        <v>0.0001589434541529045</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100">
-        <v>0.0001587392034707591</v>
+        <v>0.0001589434541529045</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101">
-        <v>0.0001587392034707591</v>
+        <v>0.0001589434541529045</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
       <c r="C102">
-        <v>0.0001588925806572661</v>
+        <v>0.0001589434541529045</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103">
-        <v>0.0001588925806572661</v>
+        <v>0.0001589434541529045</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B104">
         <v>6</v>
       </c>
       <c r="C104">
-        <v>0.0001588925806572661</v>
+        <v>0.0001587900769663975</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B105">
         <v>7</v>
       </c>
       <c r="C105">
-        <v>0.0002524540177546442</v>
+        <v>0.0002414509654045105</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B106">
         <v>8</v>
       </c>
       <c r="C106">
-        <v>0.002384942956268787</v>
+        <v>0.0002425842540105805</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B107">
         <v>9</v>
       </c>
       <c r="C107">
-        <v>0.2243073433637619</v>
+        <v>0.2535237967967987</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B108">
         <v>10</v>
       </c>
       <c r="C108">
-        <v>0.5119988322257996</v>
+        <v>0.5761610269546509</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B109">
         <v>11</v>
       </c>
       <c r="C109">
-        <v>0.7292948961257935</v>
+        <v>0.9129863381385803</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B110">
         <v>12</v>
       </c>
       <c r="C110">
-        <v>0.8628427386283875</v>
+        <v>1.058297991752625</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B111">
         <v>13</v>
       </c>
       <c r="C111">
-        <v>0.8514592051506042</v>
+        <v>1.009856462478638</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B112">
         <v>14</v>
       </c>
       <c r="C112">
-        <v>0.719540536403656</v>
+        <v>0.8167738914489746</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B113">
         <v>15</v>
       </c>
       <c r="C113">
-        <v>0.5236951112747192</v>
+        <v>0.5385670065879822</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B114">
         <v>16</v>
       </c>
       <c r="C114">
-        <v>0.2309737205505371</v>
+        <v>0.2408571690320969</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B115">
         <v>17</v>
       </c>
       <c r="C115">
-        <v>0.0007580883684568107</v>
+        <v>0.0001697327243164182</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B116">
         <v>18</v>
       </c>
       <c r="C116">
-        <v>0.0001584973651915789</v>
+        <v>0.0001578050432726741</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B117">
         <v>19</v>
       </c>
       <c r="C117">
-        <v>0.0001584973651915789</v>
+        <v>0.0001578050432726741</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B118">
         <v>20</v>
       </c>
       <c r="C118">
-        <v>0.0001585482386872172</v>
+        <v>0.0001578050432726741</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B119">
         <v>21</v>
       </c>
       <c r="C119">
-        <v>0.0001584579003974795</v>
+        <v>0.0001578050432726741</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B120">
         <v>22</v>
       </c>
       <c r="C120">
-        <v>0.0001584579003974795</v>
+        <v>0.0001578050432726741</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B121">
         <v>23</v>
       </c>
       <c r="C121">
-        <v>0.000158676179125905</v>
+        <v>0.0001565488055348396</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
+++ b/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,1322 +377,3709 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.0001587711012689397</v>
+        <v>0.1738991141319275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>0.000158808208652772</v>
+        <v>0.05289187282323837</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.000158808208652772</v>
+        <v>0.000166114215971902</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.0001587711012689397</v>
+        <v>0.0001596586807863787</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.0001587711012689397</v>
+        <v>0.0001596586807863787</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.0001587711012689397</v>
+        <v>0.0001596586807863787</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.0001587711012689397</v>
+        <v>0.0001596586807863787</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.0002417498035356402</v>
+        <v>0.0001596586807863787</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.001283963210880756</v>
+        <v>0.0001596586807863787</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1349525153636932</v>
+        <v>0.0001599005190655589</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.4151575267314911</v>
+        <v>0.0001599005190655589</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.6436352133750916</v>
+        <v>0.0001599005190655589</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.7824594974517822</v>
+        <v>0.0001599005190655589</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0.7927851676940918</v>
+        <v>0.0001600974937900901</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>0.6883428692817688</v>
+        <v>0.0001663561706664041</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>0.5038387179374695</v>
+        <v>0.06752265244722366</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>0.2009968012571335</v>
+        <v>0.2337144315242767</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>0.0001705784234218299</v>
+        <v>0.3383685648441315</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>0.0001586507423780859</v>
+        <v>0.4562531709671021</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0.0001586507423780859</v>
+        <v>0.5758643746376038</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>0.0001587016158737242</v>
+        <v>0.6674066185951233</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>0.0001587016158737242</v>
+        <v>0.6668835878372192</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>0.0001587016158737242</v>
+        <v>0.5595549345016479</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>0.0001587016158737242</v>
+        <v>0.4298999011516571</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>0.0001589434541529045</v>
+        <v>0.2963702380657196</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>0.0001587506121722981</v>
+        <v>0.1142919659614563</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>0.0001576685026520863</v>
+        <v>0.000909583002794534</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>0.0001577629736857489</v>
+        <v>0.0001595808571437374</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>0.0001572695473441854</v>
+        <v>0.0001595808571437374</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>0.0001577629736857489</v>
+        <v>0.0001593859342392534</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>0.0001577629736857489</v>
+        <v>0.0001593859342392534</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>0.0002407471183687449</v>
+        <v>0.0001593859342392534</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>0.002428500447422266</v>
+        <v>0.0001594637578818947</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.3486023545265198</v>
+        <v>0.0001597055961610749</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.7825906872749329</v>
+        <v>0.0001597055961610749</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>1.085276365280151</v>
+        <v>0.0001597055961610749</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>1.162951231002808</v>
+        <v>0.0001597055961610749</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>1.029523611068726</v>
+        <v>0.0001597055961610749</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>0.7472240328788757</v>
+        <v>0.0001619940449018031</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0.5039651393890381</v>
+        <v>0.09127262234687805</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0.208067387342453</v>
+        <v>0.3479354083538055</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>0.0001705784234218299</v>
+        <v>0.6211390495300293</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>0.0001587016158737242</v>
+        <v>0.9068652391433716</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>0.0001587016158737242</v>
+        <v>1.193397283554077</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>0.0001586507423780859</v>
+        <v>1.260782122612</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>0.0001584973651915789</v>
+        <v>1.20253324508667</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>0.0001584579003974795</v>
+        <v>1.090681672096252</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>0.0001586507423780859</v>
+        <v>0.836749792098999</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>0.0001588925806572661</v>
+        <v>0.5443430542945862</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>0.0001588925806572661</v>
+        <v>0.2395846247673035</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>0.0001588925806572661</v>
+        <v>0.005574083887040615</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>0.0001587711012689397</v>
+        <v>0.0001595965441083536</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>0.0001587711012689397</v>
+        <v>0.0001595965441083536</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>0.0001587711012689397</v>
+        <v>0.0001595965441083536</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>0.000158808208652772</v>
+        <v>0.0001595570793142542</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>0.0002417869109194726</v>
+        <v>0.0001595570793142542</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>0.0002317860926268622</v>
+        <v>0.0001597753580426797</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.09910106658935547</v>
+        <v>0.0001578389492351562</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0.2936945855617523</v>
+        <v>0.0001589002640685067</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>0.4434866011142731</v>
+        <v>0.0001586162979947403</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>0.513696551322937</v>
+        <v>0.0001586162979947403</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>0.4976730942726135</v>
+        <v>0.0001584629790158942</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B64">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>0.4439838826656342</v>
+        <v>0.002145837526768446</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>0.3074057102203369</v>
+        <v>0.3110979795455933</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>0.101967953145504</v>
+        <v>0.7901571989059448</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>0.0001585292629897594</v>
+        <v>1.382790684700012</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>0.0001585292629897594</v>
+        <v>1.777115821838379</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>0.0001585292629897594</v>
+        <v>1.995056867599487</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>0.0001585292629897594</v>
+        <v>1.954891443252563</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>0.0001585292629897594</v>
+        <v>1.741843581199646</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B72">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>0.0001585292629897594</v>
+        <v>1.36018705368042</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B73">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>0.0001585292629897594</v>
+        <v>0.9288755059242249</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>0.0001587711012689397</v>
+        <v>0.5822096467018127</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>0.000158808208652772</v>
+        <v>0.2225908488035202</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>0.0001587235165061429</v>
+        <v>0.005594494752585888</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>0.0001587235165061429</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>0.0001587235165061429</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C79">
-        <v>0.000158808208652772</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>0.000158808208652772</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C81">
-        <v>0.0002417869109194726</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>0.0002317860926268622</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.08403897285461426</v>
+        <v>0.0001594508066773415</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>0.2655611336231232</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>0.3909583389759064</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>0.4788242280483246</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>0.4783915281295776</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>0.4268096387386322</v>
+        <v>0.001013528206385672</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B89">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>0.3109486699104309</v>
+        <v>0.1421040296554565</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B90">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C90">
-        <v>0.1072699427604675</v>
+        <v>0.4024333357810974</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B91">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>0.0001585801364853978</v>
+        <v>0.6244544982910156</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B92">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>0.0001585801364853978</v>
+        <v>0.7928839921951294</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B93">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>0.0001585801364853978</v>
+        <v>0.9527815580368042</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B94">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>0.0001587016158737242</v>
+        <v>1.019875884056091</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B95">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>0.0001587016158737242</v>
+        <v>1.004483938217163</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B96">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>0.0001587016158737242</v>
+        <v>0.9021760225296021</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>0.0001587016158737242</v>
+        <v>0.7015333771705627</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>0.0001589434541529045</v>
+        <v>0.4358967542648315</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>0.0001589434541529045</v>
+        <v>0.1867661625146866</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>0.0001589434541529045</v>
+        <v>0.005566994659602642</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>0.0001589434541529045</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C102">
-        <v>0.0001589434541529045</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C103">
-        <v>0.0001589434541529045</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>0.0001587900769663975</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C105">
-        <v>0.0002414509654045105</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C106">
-        <v>0.0002425842540105805</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0.2535237967967987</v>
+        <v>0.0001594508066773415</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>0.5761610269546509</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>0.9129863381385803</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B110">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>1.058297991752625</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B111">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>1.009856462478638</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B112">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <v>0.8167738914489746</v>
+        <v>0.002137181581929326</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>0.5385670065879822</v>
+        <v>0.1555575132369995</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>0.2408571690320969</v>
+        <v>0.4558925330638885</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>0.0001697327243164182</v>
+        <v>0.760845422744751</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B116">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>0.0001578050432726741</v>
+        <v>1.012345552444458</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B117">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>0.0001578050432726741</v>
+        <v>1.08617639541626</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B118">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>0.0001578050432726741</v>
+        <v>1.084487199783325</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B119">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>0.0001578050432726741</v>
+        <v>1.126711845397949</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B120">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <v>0.0001578050432726741</v>
+        <v>1.023471832275391</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>0.8205822110176086</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B122">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>0.5151804089546204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B123">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>0.2105503529310226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>0.007609926164150238</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B126">
+        <v>19</v>
+      </c>
+      <c r="C126">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B128">
+        <v>21</v>
+      </c>
+      <c r="C128">
+        <v>0.0001597499212948605</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B129">
+        <v>22</v>
+      </c>
+      <c r="C129">
+        <v>0.0001597499212948605</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B130">
         <v>23</v>
       </c>
-      <c r="C121">
-        <v>0.0001565488055348396</v>
+      <c r="C130">
+        <v>0.0001597499212948605</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0.0001599917595740408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>0.0001599917595740408</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>0.0001599917595740408</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>0.0001599917595740408</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>0.0001599917595740408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>0.002126610139384866</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>0.1485726237297058</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>0.4059060513973236</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B139">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>0.6127044558525085</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>0.7946966886520386</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>0.9786025881767273</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <v>1.06378960609436</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>1.060608148574829</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B144">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>0.938823401927948</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B145">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>0.7267171144485474</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B146">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>0.4536896646022797</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B147">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>0.1774479299783707</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B148">
+        <v>17</v>
+      </c>
+      <c r="C148">
+        <v>0.005638439673930407</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B149">
+        <v>18</v>
+      </c>
+      <c r="C149">
+        <v>0.0001598298404132947</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B150">
+        <v>19</v>
+      </c>
+      <c r="C150">
+        <v>0.0001590874890098348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B151">
+        <v>20</v>
+      </c>
+      <c r="C151">
+        <v>0.0001590874890098348</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B152">
+        <v>21</v>
+      </c>
+      <c r="C152">
+        <v>0.0001590874890098348</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B153">
+        <v>22</v>
+      </c>
+      <c r="C153">
+        <v>0.0001590874890098348</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B154">
+        <v>23</v>
+      </c>
+      <c r="C154">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0.0001599917595740408</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>0.0001599917595740408</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>0.0001599917595740408</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>0.0001599917595740408</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>0.0001598702801857144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>0.002127556363120675</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>0.1375782191753387</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>0.3663541078567505</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>0.5801506042480469</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>0.8032434582710266</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>0.9540212750434875</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <v>0.9872028827667236</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>0.8614075779914856</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B168">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>0.7408843040466309</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B169">
+        <v>14</v>
+      </c>
+      <c r="C169">
+        <v>0.5839062333106995</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B170">
+        <v>15</v>
+      </c>
+      <c r="C170">
+        <v>0.3905227780342102</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B171">
+        <v>16</v>
+      </c>
+      <c r="C171">
+        <v>0.1527827531099319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B172">
+        <v>17</v>
+      </c>
+      <c r="C172">
+        <v>0.003417973406612873</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B173">
+        <v>18</v>
+      </c>
+      <c r="C173">
+        <v>0.0001586847356520593</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B174">
+        <v>19</v>
+      </c>
+      <c r="C174">
+        <v>0.0001598298404132947</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B175">
+        <v>20</v>
+      </c>
+      <c r="C175">
+        <v>0.0001598298404132947</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B176">
+        <v>21</v>
+      </c>
+      <c r="C176">
+        <v>0.0001598298404132947</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B177">
+        <v>22</v>
+      </c>
+      <c r="C177">
+        <v>0.0001590874890098348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B178">
+        <v>23</v>
+      </c>
+      <c r="C178">
+        <v>0.0001590874890098348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0.0001593293272890151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>0.0001593293272890151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>0.0001593293272890151</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>0.0001593293272890151</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>0.0001593293272890151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>0.002139779506251216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>0.1144531741738319</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B186">
+        <v>7</v>
+      </c>
+      <c r="C186">
+        <v>0.338173896074295</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>0.5457829236984253</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>0.7529997229576111</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B189">
+        <v>10</v>
+      </c>
+      <c r="C189">
+        <v>0.9650279879570007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B190">
+        <v>11</v>
+      </c>
+      <c r="C190">
+        <v>1.053860545158386</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B191">
+        <v>12</v>
+      </c>
+      <c r="C191">
+        <v>1.11763334274292</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B192">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>1.026564955711365</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B193">
+        <v>14</v>
+      </c>
+      <c r="C193">
+        <v>0.7754082083702087</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B194">
+        <v>15</v>
+      </c>
+      <c r="C194">
+        <v>0.4684258699417114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B195">
+        <v>16</v>
+      </c>
+      <c r="C195">
+        <v>0.1728303134441376</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B196">
+        <v>17</v>
+      </c>
+      <c r="C196">
+        <v>0.005585632286965847</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B197">
+        <v>18</v>
+      </c>
+      <c r="C197">
+        <v>0.0001599513198016211</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B198">
+        <v>19</v>
+      </c>
+      <c r="C198">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B199">
+        <v>20</v>
+      </c>
+      <c r="C199">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B200">
+        <v>21</v>
+      </c>
+      <c r="C200">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B201">
+        <v>22</v>
+      </c>
+      <c r="C201">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B202">
+        <v>23</v>
+      </c>
+      <c r="C202">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0.0001594508066773415</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>0.0001594508066773415</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>0.0001594508066773415</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>0.0001594508066773415</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>0.0001594508066773415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>0.003663375042378902</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B209">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>0.1402352303266525</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B210">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>0.4307495355606079</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B211">
+        <v>8</v>
+      </c>
+      <c r="C211">
+        <v>0.7370064854621887</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B212">
+        <v>9</v>
+      </c>
+      <c r="C212">
+        <v>0.9933878779411316</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B213">
+        <v>10</v>
+      </c>
+      <c r="C213">
+        <v>1.134220719337463</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B214">
+        <v>11</v>
+      </c>
+      <c r="C214">
+        <v>1.106978893280029</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B215">
+        <v>12</v>
+      </c>
+      <c r="C215">
+        <v>0.9867613315582275</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B216">
+        <v>13</v>
+      </c>
+      <c r="C216">
+        <v>0.725299596786499</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B217">
+        <v>14</v>
+      </c>
+      <c r="C217">
+        <v>0.4442631602287292</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B218">
+        <v>15</v>
+      </c>
+      <c r="C218">
+        <v>0.3391447365283966</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B219">
+        <v>16</v>
+      </c>
+      <c r="C219">
+        <v>0.1795942485332489</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B220">
+        <v>17</v>
+      </c>
+      <c r="C220">
+        <v>0.009434148669242859</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B221">
+        <v>18</v>
+      </c>
+      <c r="C221">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B222">
+        <v>19</v>
+      </c>
+      <c r="C222">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B224">
+        <v>21</v>
+      </c>
+      <c r="C224">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B225">
+        <v>22</v>
+      </c>
+      <c r="C225">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B226">
+        <v>23</v>
+      </c>
+      <c r="C226">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0.0001594508066773415</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>0.0001594508066773415</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>0.0001593595661688596</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>0.0001593595661688596</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>0.0001593595661688596</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B232">
+        <v>5</v>
+      </c>
+      <c r="C232">
+        <v>0.002138896845281124</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>0.1088729500770569</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B234">
+        <v>7</v>
+      </c>
+      <c r="C234">
+        <v>0.2997038960456848</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B235">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>0.4455797672271729</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B236">
+        <v>9</v>
+      </c>
+      <c r="C236">
+        <v>0.5912351608276367</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B237">
+        <v>10</v>
+      </c>
+      <c r="C237">
+        <v>0.7550551891326904</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B238">
+        <v>11</v>
+      </c>
+      <c r="C238">
+        <v>0.9557844996452332</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B239">
+        <v>12</v>
+      </c>
+      <c r="C239">
+        <v>1.044648408889771</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B240">
+        <v>13</v>
+      </c>
+      <c r="C240">
+        <v>0.9766653180122375</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B241">
+        <v>14</v>
+      </c>
+      <c r="C241">
+        <v>0.7784351110458374</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B242">
+        <v>15</v>
+      </c>
+      <c r="C242">
+        <v>0.5045502185821533</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B243">
+        <v>16</v>
+      </c>
+      <c r="C243">
+        <v>0.2114776819944382</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B244">
+        <v>17</v>
+      </c>
+      <c r="C244">
+        <v>0.009388571605086327</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B245">
+        <v>18</v>
+      </c>
+      <c r="C245">
+        <v>0.0001588062150403857</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B246">
+        <v>19</v>
+      </c>
+      <c r="C246">
+        <v>0.0001599513198016211</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B247">
+        <v>20</v>
+      </c>
+      <c r="C247">
+        <v>0.0001599513198016211</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B248">
+        <v>21</v>
+      </c>
+      <c r="C248">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B249">
+        <v>22</v>
+      </c>
+      <c r="C249">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B250">
+        <v>23</v>
+      </c>
+      <c r="C250">
+        <v>0.0001590874890098348</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0.0001593664346728474</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>0.0001592817425262183</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>0.0001592817425262183</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>0.0001592817425262183</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>0.0001592817425262183</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>0.003652582876384258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>0.1327410191297531</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B258">
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <v>0.3312965035438538</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B259">
+        <v>8</v>
+      </c>
+      <c r="C259">
+        <v>0.4460616111755371</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B260">
+        <v>9</v>
+      </c>
+      <c r="C260">
+        <v>0.5460500717163086</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B261">
+        <v>10</v>
+      </c>
+      <c r="C261">
+        <v>0.7210947871208191</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B262">
+        <v>11</v>
+      </c>
+      <c r="C262">
+        <v>1.034149885177612</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B263">
+        <v>12</v>
+      </c>
+      <c r="C263">
+        <v>1.323386549949646</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B264">
+        <v>13</v>
+      </c>
+      <c r="C264">
+        <v>1.270421385765076</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B265">
+        <v>14</v>
+      </c>
+      <c r="C265">
+        <v>0.8827083706855774</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B266">
+        <v>15</v>
+      </c>
+      <c r="C266">
+        <v>0.5402233004570007</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B267">
+        <v>16</v>
+      </c>
+      <c r="C267">
+        <v>0.2209849506616592</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B268">
+        <v>17</v>
+      </c>
+      <c r="C268">
+        <v>0.01392560359090567</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B269">
+        <v>18</v>
+      </c>
+      <c r="C269">
+        <v>0.0001588062150403857</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B270">
+        <v>19</v>
+      </c>
+      <c r="C270">
+        <v>0.0001599513198016211</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B271">
+        <v>20</v>
+      </c>
+      <c r="C271">
+        <v>0.0001599513198016211</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B272">
+        <v>21</v>
+      </c>
+      <c r="C272">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B273">
+        <v>22</v>
+      </c>
+      <c r="C273">
+        <v>0.0001592089683981612</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B274">
+        <v>23</v>
+      </c>
+      <c r="C274">
+        <v>0.0001591245963936672</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0.0001595565408933908</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>0.0001597220834810287</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>0.0001595565408933908</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>0.0001593595661688596</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>0.0001593595661688596</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B280">
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>0.002143862657248974</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B281">
+        <v>6</v>
+      </c>
+      <c r="C281">
+        <v>0.09701459854841232</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B282">
+        <v>7</v>
+      </c>
+      <c r="C282">
+        <v>0.2318548858165741</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B283">
+        <v>8</v>
+      </c>
+      <c r="C283">
+        <v>0.3329271972179413</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B284">
+        <v>9</v>
+      </c>
+      <c r="C284">
+        <v>0.4196881949901581</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B285">
+        <v>10</v>
+      </c>
+      <c r="C285">
+        <v>0.46967414021492</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B286">
+        <v>11</v>
+      </c>
+      <c r="C286">
+        <v>0.4787241518497467</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B287">
+        <v>12</v>
+      </c>
+      <c r="C287">
+        <v>0.446471244096756</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B288">
+        <v>13</v>
+      </c>
+      <c r="C288">
+        <v>0.3599939048290253</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B289">
+        <v>14</v>
+      </c>
+      <c r="C289">
+        <v>0.2324067801237106</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B290">
+        <v>15</v>
+      </c>
+      <c r="C290">
+        <v>0.1421177536249161</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B291">
+        <v>16</v>
+      </c>
+      <c r="C291">
+        <v>0.06275849789381027</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B292">
+        <v>17</v>
+      </c>
+      <c r="C292">
+        <v>0.001970298821106553</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B293">
+        <v>18</v>
+      </c>
+      <c r="C293">
+        <v>0.0001591177278896794</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B294">
+        <v>19</v>
+      </c>
+      <c r="C294">
+        <v>0.0001591245963936672</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B295">
+        <v>20</v>
+      </c>
+      <c r="C295">
+        <v>0.0001590874890098348</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B296">
+        <v>21</v>
+      </c>
+      <c r="C296">
+        <v>0.0001590874890098348</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B297">
+        <v>22</v>
+      </c>
+      <c r="C297">
+        <v>0.0001591245963936672</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B298">
+        <v>23</v>
+      </c>
+      <c r="C298">
+        <v>0.0001596586807863787</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>0.0001604571589268744</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>0.0001602928969077766</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>0.0001602928969077766</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>0.0001602928969077766</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>0.0001602928969077766</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>0.0009962941985577345</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B305">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>0.06007967889308929</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B306">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>0.1581352204084396</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B307">
+        <v>8</v>
+      </c>
+      <c r="C307">
+        <v>0.2166917026042938</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B308">
+        <v>9</v>
+      </c>
+      <c r="C308">
+        <v>0.2667177021503448</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B309">
+        <v>10</v>
+      </c>
+      <c r="C309">
+        <v>0.3281397521495819</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B310">
+        <v>11</v>
+      </c>
+      <c r="C310">
+        <v>0.3837192058563232</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B311">
+        <v>12</v>
+      </c>
+      <c r="C311">
+        <v>0.4072644412517548</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B312">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <v>0.4335638284683228</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B313">
+        <v>14</v>
+      </c>
+      <c r="C313">
+        <v>0.4575664699077606</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B314">
+        <v>15</v>
+      </c>
+      <c r="C314">
+        <v>0.4041124582290649</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B315">
+        <v>16</v>
+      </c>
+      <c r="C315">
+        <v>0.2109439969062805</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B316">
+        <v>17</v>
+      </c>
+      <c r="C316">
+        <v>0.01385109312832355</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B317">
+        <v>18</v>
+      </c>
+      <c r="C317">
+        <v>0.0001594016794115305</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B318">
+        <v>19</v>
+      </c>
+      <c r="C318">
+        <v>0.0001594016794115305</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B319">
+        <v>20</v>
+      </c>
+      <c r="C319">
+        <v>0.0001594016794115305</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B320">
+        <v>21</v>
+      </c>
+      <c r="C320">
+        <v>0.0001594016794115305</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B321">
+        <v>22</v>
+      </c>
+      <c r="C321">
+        <v>0.0001592483022250235</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B322">
+        <v>23</v>
+      </c>
+      <c r="C322">
+        <v>0.0001591031323187053</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>0.0001573850022396073</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>0.0001586412399774417</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>0.0001586412399774417</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>0.0001586280268384144</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <v>0.0001586412399774417</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B328">
+        <v>5</v>
+      </c>
+      <c r="C328">
+        <v>0.02276938036084175</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B329">
+        <v>6</v>
+      </c>
+      <c r="C329">
+        <v>0.263492226600647</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B330">
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <v>0.6566730141639709</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B331">
+        <v>8</v>
+      </c>
+      <c r="C331">
+        <v>1.033753037452698</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B332">
+        <v>9</v>
+      </c>
+      <c r="C332">
+        <v>1.323937058448792</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B333">
+        <v>10</v>
+      </c>
+      <c r="C333">
+        <v>1.625063300132751</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B334">
+        <v>11</v>
+      </c>
+      <c r="C334">
+        <v>1.592961311340332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B335">
+        <v>12</v>
+      </c>
+      <c r="C335">
+        <v>1.404359698295593</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B336">
+        <v>13</v>
+      </c>
+      <c r="C336">
+        <v>1.125017285346985</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B337">
+        <v>14</v>
+      </c>
+      <c r="C337">
+        <v>0.8227943181991577</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B338">
+        <v>15</v>
+      </c>
+      <c r="C338">
+        <v>0.5136436223983765</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
+++ b/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
@@ -377,101 +377,101 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.1738991141319275</v>
+        <v>1.082278251647949</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.05289187282323837</v>
+        <v>0.9946185350418091</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.000166114215971902</v>
+        <v>0.8281948566436768</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.0001596586807863787</v>
+        <v>0.5588282942771912</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.0001596586807863787</v>
+        <v>0.4021217823028564</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.0001596586807863787</v>
+        <v>0.2824186086654663</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.0001596586807863787</v>
+        <v>0.1090711131691933</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.0001596586807863787</v>
+        <v>0.000909583002794534</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.0001596586807863787</v>
+        <v>0.0001596655492903665</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -479,10 +479,10 @@
         <v>45365</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0.0001599005190655589</v>
+        <v>0.0001596655492903665</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -490,10 +490,10 @@
         <v>45365</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0.0001599005190655589</v>
+        <v>0.0001596655492903665</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -501,10 +501,10 @@
         <v>45365</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0.0001599005190655589</v>
+        <v>0.0001596655492903665</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -512,10 +512,10 @@
         <v>45365</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.0001599005190655589</v>
+        <v>0.0001596655492903665</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -523,219 +523,219 @@
         <v>45365</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>0.0001600974937900901</v>
+        <v>0.0001596586807863787</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0001663561706664041</v>
+        <v>0.0001599005190655589</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.06752265244722366</v>
+        <v>0.0001599005190655589</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.2337144315242767</v>
+        <v>0.0001599005190655589</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.3383685648441315</v>
+        <v>0.0001600974937900901</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.4562531709671021</v>
+        <v>0.000160263036377728</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.5758643746376038</v>
+        <v>0.0001623563875909895</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.6674066185951233</v>
+        <v>0.06218647584319115</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.6668835878372192</v>
+        <v>0.2199671119451523</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.5595549345016479</v>
+        <v>0.3139703273773193</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.4298999011516571</v>
+        <v>0.4525350630283356</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.2963702380657196</v>
+        <v>0.6034756898880005</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.1142919659614563</v>
+        <v>0.7100329399108887</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>0.000909583002794534</v>
+        <v>0.7326743006706238</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.0001595808571437374</v>
+        <v>0.7127238512039185</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>0.0001595808571437374</v>
+        <v>0.6115115284919739</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.0001593859342392534</v>
+        <v>0.4370963573455811</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0.0001593859342392534</v>
+        <v>0.1944238394498825</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0.0001593859342392534</v>
+        <v>0.003302923403680325</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>0.0001594637578818947</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -743,10 +743,10 @@
         <v>45366</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>0.0001597055961610749</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -754,10 +754,10 @@
         <v>45366</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>0.0001597055961610749</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -765,10 +765,10 @@
         <v>45366</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>0.0001597055961610749</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -776,10 +776,10 @@
         <v>45366</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>0.0001597055961610749</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -787,219 +787,219 @@
         <v>45366</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>0.0001597055961610749</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.0001619940449018031</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.09127262234687805</v>
+        <v>0.0001597989175934345</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.3479354083538055</v>
+        <v>0.0001590951869729906</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.6211390495300293</v>
+        <v>0.0001586162979947403</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.9068652391433716</v>
+        <v>0.0001586162979947403</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>1.193397283554077</v>
+        <v>0.002226009033620358</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>1.260782122612</v>
+        <v>0.3096343576908112</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>1.20253324508667</v>
+        <v>0.7895393371582031</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>1.090681672096252</v>
+        <v>1.340858697891235</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.836749792098999</v>
+        <v>1.707380533218384</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.5443430542945862</v>
+        <v>1.957274317741394</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>0.2395846247673035</v>
+        <v>2.016976356506348</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>0.005574083887040615</v>
+        <v>1.743948221206665</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>0.0001595965441083536</v>
+        <v>1.479357242584229</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>0.0001595965441083536</v>
+        <v>1.143518090248108</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>0.0001595965441083536</v>
+        <v>0.6632175445556641</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>0.0001595570793142542</v>
+        <v>0.2523277699947357</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>0.0001595570793142542</v>
+        <v>0.00560301635414362</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>0.0001597753580426797</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1007,10 +1007,10 @@
         <v>45367</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>0.0001578389492351562</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>45367</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>0.0001589002640685067</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>45367</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>0.0001586162979947403</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>45367</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.0001586162979947403</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1051,219 +1051,219 @@
         <v>45367</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>0.0001584629790158942</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.002145837526768446</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.3110979795455933</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0.7901571989059448</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>1.382790684700012</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>1.777115821838379</v>
+        <v>0.0001598702801857144</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>1.995056867599487</v>
+        <v>0.0001661289570620283</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>1.954891443252563</v>
+        <v>0.1023307591676712</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>1.741843581199646</v>
+        <v>0.3088487386703491</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>1.36018705368042</v>
+        <v>0.4335263073444366</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.9288755059242249</v>
+        <v>0.5826708674430847</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.5822096467018127</v>
+        <v>0.7250744700431824</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.2225908488035202</v>
+        <v>0.7963203191757202</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>0.005594494752585888</v>
+        <v>0.8331047892570496</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>0.0001592089683981612</v>
+        <v>0.8904760479927063</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>0.0001592089683981612</v>
+        <v>0.8490946888923645</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>0.0001592089683981612</v>
+        <v>0.6174144744873047</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>0.0001592089683981612</v>
+        <v>0.2818906307220459</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>0.0001592089683981612</v>
+        <v>0.01373335625976324</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>0.0001592089683981612</v>
+        <v>0.0001590555912116542</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1271,10 +1271,10 @@
         <v>45368</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>0.0001594508066773415</v>
+        <v>0.0001590555912116542</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1282,10 +1282,10 @@
         <v>45368</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>0.0001599917595740408</v>
+        <v>0.0001590555912116542</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1293,10 +1293,10 @@
         <v>45368</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>0.0001599917595740408</v>
+        <v>0.0001590555912116542</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1304,10 +1304,10 @@
         <v>45368</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>0.0001599917595740408</v>
+        <v>0.0001595965441083536</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1315,216 +1315,216 @@
         <v>45368</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>0.0001599917595740408</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.001013528206385672</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0.1421040296554565</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0.4024333357810974</v>
+        <v>0.0001598383823875338</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>0.6244544982910156</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.7928839921951294</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>0.9527815580368042</v>
+        <v>0.003715760307386518</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>1.019875884056091</v>
+        <v>0.2428101599216461</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>1.004483938217163</v>
+        <v>0.6722521781921387</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.9021760225296021</v>
+        <v>1.140842795372009</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.7015333771705627</v>
+        <v>1.479453802108765</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.4358967542648315</v>
+        <v>1.678961157798767</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.1867661625146866</v>
+        <v>1.524172306060791</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>0.005566994659602642</v>
+        <v>1.266985774040222</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>0.0001592089683981612</v>
+        <v>1.035249948501587</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>0.0001592089683981612</v>
+        <v>0.778681218624115</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>0.0001592089683981612</v>
+        <v>0.4943231046199799</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>0.0001592089683981612</v>
+        <v>0.2202798426151276</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>0.0001592089683981612</v>
+        <v>0.009399088099598885</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C106">
         <v>0.0001592089683981612</v>
@@ -1535,10 +1535,10 @@
         <v>45369</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0.0001594508066773415</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>45369</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>0.0001599917595740408</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>45369</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>0.0001599917595740408</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>45369</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>0.0001599917595740408</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1579,219 +1579,219 @@
         <v>45369</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>0.0001599917595740408</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.002137181581929326</v>
+        <v>0.0001594508066773415</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.1555575132369995</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>0.4558925330638885</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>0.760845422744751</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>1.012345552444458</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>1.08617639541626</v>
+        <v>0.002142895478755236</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>1.084487199783325</v>
+        <v>0.1409410238265991</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>1.126711845397949</v>
+        <v>0.337733268737793</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>1.023471832275391</v>
+        <v>0.4249614477157593</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.8205822110176086</v>
+        <v>0.5345091819763184</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.5151804089546204</v>
+        <v>0.6160248517990112</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>0.2105503529310226</v>
+        <v>0.6353013515472412</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>0.007609926164150238</v>
+        <v>0.5889075398445129</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>0.0001592089683981612</v>
+        <v>0.4993108808994293</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>0.0001592089683981612</v>
+        <v>0.4205745756626129</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>0.0001592089683981612</v>
+        <v>0.2968048751354218</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B128">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>0.0001597499212948605</v>
+        <v>0.1189629882574081</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B129">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>0.0001597499212948605</v>
+        <v>0.001945152413100004</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B130">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>0.0001597499212948605</v>
+        <v>0.0001590399042470381</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>45370</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>0.0001599917595740408</v>
+        <v>0.0001591245963936672</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>45370</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>0.0001599917595740408</v>
+        <v>0.0001590874890098348</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>45370</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>0.0001599917595740408</v>
+        <v>0.0001590874890098348</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>45370</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>0.0001599917595740408</v>
+        <v>0.0001590874890098348</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1843,219 +1843,219 @@
         <v>45370</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>0.0001599917595740408</v>
+        <v>0.0001590874890098348</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.002126610139384866</v>
+        <v>0.0001594508066773415</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>0.1485726237297058</v>
+        <v>0.0001594508066773415</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>0.4059060513973236</v>
+        <v>0.0001594508066773415</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>0.6127044558525085</v>
+        <v>0.0001594508066773415</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>0.7946966886520386</v>
+        <v>0.0001594508066773415</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.9786025881767273</v>
+        <v>0.003670716658234596</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B142">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>1.06378960609436</v>
+        <v>0.1779476553201675</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>1.060608148574829</v>
+        <v>0.4863533079624176</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0.938823401927948</v>
+        <v>0.7696326375007629</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0.7267171144485474</v>
+        <v>1.014687418937683</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B146">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.4536896646022797</v>
+        <v>1.148248910903931</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>0.1774479299783707</v>
+        <v>1.199156045913696</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>0.005638439673930407</v>
+        <v>1.131016254425049</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B149">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>0.0001598298404132947</v>
+        <v>0.9874973297119141</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B150">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>0.0001590874890098348</v>
+        <v>0.7976081371307373</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>0.0001590874890098348</v>
+        <v>0.5105718970298767</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B152">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>0.0001590874890098348</v>
+        <v>0.2118877619504929</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B153">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>0.0001590874890098348</v>
+        <v>0.007585730403661728</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B154">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>0.0001592089683981612</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>45371</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>0.0001599917595740408</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>45371</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>0.0001599917595740408</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>45371</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>0.0001599917595740408</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>45371</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>0.0001599917595740408</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2107,219 +2107,219 @@
         <v>45371</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>0.0001598702801857144</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0.002127556363120675</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.1375782191753387</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>0.3663541078567505</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.5801506042480469</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.8032434582710266</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.9540212750434875</v>
+        <v>0.003691676538437605</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0.9872028827667236</v>
+        <v>0.1913719028234482</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0.8614075779914856</v>
+        <v>0.5128909945487976</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B168">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.7408843040466309</v>
+        <v>0.8628044128417969</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B169">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.5839062333106995</v>
+        <v>1.203290224075317</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B170">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.3905227780342102</v>
+        <v>1.441421866416931</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B171">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C171">
-        <v>0.1527827531099319</v>
+        <v>1.566204428672791</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B172">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C172">
-        <v>0.003417973406612873</v>
+        <v>1.558138608932495</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B173">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>0.0001586847356520593</v>
+        <v>1.430522322654724</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B174">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C174">
-        <v>0.0001598298404132947</v>
+        <v>1.071455597877502</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B175">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C175">
-        <v>0.0001598298404132947</v>
+        <v>0.6185934543609619</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B176">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C176">
-        <v>0.0001598298404132947</v>
+        <v>0.2229197472333908</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B177">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C177">
-        <v>0.0001590874890098348</v>
+        <v>0.009437620639801025</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B178">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C178">
-        <v>0.0001590874890098348</v>
+        <v>0.0001599513198016211</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>45372</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C179">
-        <v>0.0001593293272890151</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>45372</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C180">
-        <v>0.0001593293272890151</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>45372</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C181">
-        <v>0.0001593293272890151</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2360,10 +2360,10 @@
         <v>45372</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C182">
-        <v>0.0001593293272890151</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2371,216 +2371,216 @@
         <v>45372</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C183">
-        <v>0.0001593293272890151</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0.002139779506251216</v>
+        <v>0.0001594508066773415</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B185">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>0.1144531741738319</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B186">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>0.338173896074295</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>0.5457829236984253</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B188">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>0.7529997229576111</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B189">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C189">
-        <v>0.9650279879570007</v>
+        <v>0.002145641250535846</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B190">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>1.053860545158386</v>
+        <v>0.1320042312145233</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B191">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C191">
-        <v>1.11763334274292</v>
+        <v>0.4137697517871857</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B192">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C192">
-        <v>1.026564955711365</v>
+        <v>0.713067352771759</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B193">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C193">
-        <v>0.7754082083702087</v>
+        <v>0.9893926978111267</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C194">
-        <v>0.4684258699417114</v>
+        <v>1.267427802085876</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B195">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C195">
-        <v>0.1728303134441376</v>
+        <v>1.507997632026672</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B196">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C196">
-        <v>0.005585632286965847</v>
+        <v>1.389970302581787</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B197">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C197">
-        <v>0.0001599513198016211</v>
+        <v>1.131074547767639</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B198">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C198">
-        <v>0.0001592089683981612</v>
+        <v>0.8585268259048462</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B199">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C199">
-        <v>0.0001592089683981612</v>
+        <v>0.5471438765525818</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B200">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C200">
-        <v>0.0001592089683981612</v>
+        <v>0.2159959822893143</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B201">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C201">
-        <v>0.0001592089683981612</v>
+        <v>0.009437620639801025</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B202">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C202">
         <v>0.0001592089683981612</v>
@@ -2591,10 +2591,10 @@
         <v>45373</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C203">
-        <v>0.0001594508066773415</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>45373</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C204">
-        <v>0.0001594508066773415</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>45373</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C205">
-        <v>0.0001594508066773415</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>45373</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C206">
-        <v>0.0001594508066773415</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2635,219 +2635,219 @@
         <v>45373</v>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C207">
-        <v>0.0001594508066773415</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>0.003663375042378902</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>0.1402352303266525</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B210">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C210">
-        <v>0.4307495355606079</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C211">
-        <v>0.7370064854621887</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C212">
-        <v>0.9933878779411316</v>
+        <v>0.0001599917595740408</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C213">
-        <v>1.134220719337463</v>
+        <v>0.007991032674908638</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>1.106978893280029</v>
+        <v>0.2141299843788147</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B215">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C215">
-        <v>0.9867613315582275</v>
+        <v>0.5740398168563843</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B216">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C216">
-        <v>0.725299596786499</v>
+        <v>0.9570016860961914</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B217">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C217">
-        <v>0.4442631602287292</v>
+        <v>1.292951703071594</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B218">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C218">
-        <v>0.3391447365283966</v>
+        <v>1.550169944763184</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B219">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C219">
-        <v>0.1795942485332489</v>
+        <v>1.699010133743286</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B220">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C220">
-        <v>0.009434148669242859</v>
+        <v>1.685237407684326</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B221">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C221">
-        <v>0.0001592089683981612</v>
+        <v>1.641142845153809</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B222">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C222">
-        <v>0.0001592089683981612</v>
+        <v>1.426016092300415</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B223">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C223">
-        <v>0.0001592089683981612</v>
+        <v>0.8934515118598938</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B224">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C224">
-        <v>0.0001592089683981612</v>
+        <v>0.3903191983699799</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B225">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C225">
-        <v>0.0001592089683981612</v>
+        <v>0.03124261647462845</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B226">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C226">
-        <v>0.0001592089683981612</v>
+        <v>0.0001570561580592766</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2855,10 +2855,10 @@
         <v>45374</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C227">
-        <v>0.0001594508066773415</v>
+        <v>0.0001570561580592766</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2866,10 +2866,10 @@
         <v>45374</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C228">
-        <v>0.0001594508066773415</v>
+        <v>0.0001570561580592766</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2877,10 +2877,10 @@
         <v>45374</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C229">
-        <v>0.0001593595661688596</v>
+        <v>0.0001570561580592766</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2888,10 +2888,10 @@
         <v>45374</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C230">
-        <v>0.0001593595661688596</v>
+        <v>0.0001583123957971111</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2899,219 +2899,219 @@
         <v>45374</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C231">
-        <v>0.0001593595661688596</v>
+        <v>0.0001579340168973431</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C232">
-        <v>0.002138896845281124</v>
+        <v>0.0001588112208992243</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B233">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>0.1088729500770569</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B234">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C234">
-        <v>0.2997038960456848</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C235">
-        <v>0.4455797672271729</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B236">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C236">
-        <v>0.5912351608276367</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B237">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C237">
-        <v>0.7550551891326904</v>
+        <v>0.02853685989975929</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B238">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C238">
-        <v>0.9557844996452332</v>
+        <v>0.3874980807304382</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B239">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C239">
-        <v>1.044648408889771</v>
+        <v>0.9227516055107117</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B240">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C240">
-        <v>0.9766653180122375</v>
+        <v>1.468127727508545</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B241">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C241">
-        <v>0.7784351110458374</v>
+        <v>1.878198623657227</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B242">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C242">
-        <v>0.5045502185821533</v>
+        <v>1.956190943717957</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B243">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C243">
-        <v>0.2114776819944382</v>
+        <v>1.804298281669617</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B244">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C244">
-        <v>0.009388571605086327</v>
+        <v>1.525937080383301</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B245">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>0.0001588062150403857</v>
+        <v>1.150795459747314</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B246">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C246">
-        <v>0.0001599513198016211</v>
+        <v>0.7495837211608887</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B247">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C247">
-        <v>0.0001599513198016211</v>
+        <v>0.4119505882263184</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B248">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C248">
-        <v>0.0001592089683981612</v>
+        <v>0.1732695400714874</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B249">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C249">
-        <v>0.0001592089683981612</v>
+        <v>0.009464755654335022</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B250">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C250">
-        <v>0.0001590874890098348</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3119,10 +3119,10 @@
         <v>45375</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C251">
-        <v>0.0001593664346728474</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3130,10 +3130,10 @@
         <v>45375</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C252">
-        <v>0.0001592817425262183</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3141,10 +3141,10 @@
         <v>45375</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C253">
-        <v>0.0001592817425262183</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3152,10 +3152,10 @@
         <v>45375</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C254">
-        <v>0.0001592817425262183</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3163,219 +3163,219 @@
         <v>45375</v>
       </c>
       <c r="B255">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C255">
-        <v>0.0001592817425262183</v>
+        <v>0.0001593621564097703</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>0.003652582876384258</v>
+        <v>0.0001585218851687387</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>0.1327410191297531</v>
+        <v>0.0001578690280439332</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B258">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C258">
-        <v>0.3312965035438538</v>
+        <v>0.0001578690280439332</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C259">
-        <v>0.4460616111755371</v>
+        <v>0.0001578690280439332</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B260">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C260">
-        <v>0.5460500717163086</v>
+        <v>0.0001578690280439332</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B261">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C261">
-        <v>0.7210947871208191</v>
+        <v>0.02865717932581902</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B262">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C262">
-        <v>1.034149885177612</v>
+        <v>0.3862282037734985</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B263">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C263">
-        <v>1.323386549949646</v>
+        <v>0.9268448948860168</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B264">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C264">
-        <v>1.270421385765076</v>
+        <v>1.518352746963501</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B265">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C265">
-        <v>0.8827083706855774</v>
+        <v>1.941084980964661</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B266">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C266">
-        <v>0.5402233004570007</v>
+        <v>2.197187185287476</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B267">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C267">
-        <v>0.2209849506616592</v>
+        <v>2.29857873916626</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B268">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C268">
-        <v>0.01392560359090567</v>
+        <v>2.216379880905151</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C269">
-        <v>0.0001588062150403857</v>
+        <v>1.981964349746704</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B270">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C270">
-        <v>0.0001599513198016211</v>
+        <v>1.563689231872559</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B271">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C271">
-        <v>0.0001599513198016211</v>
+        <v>0.9804584383964539</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B272">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C272">
-        <v>0.0001592089683981612</v>
+        <v>0.4192917048931122</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B273">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C273">
-        <v>0.0001592089683981612</v>
+        <v>0.03330669179558754</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B274">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C274">
-        <v>0.0001591245963936672</v>
+        <v>0.0001584749697940424</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3383,10 +3383,10 @@
         <v>45376</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C275">
-        <v>0.0001595565408933908</v>
+        <v>0.0001584749697940424</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3394,10 +3394,10 @@
         <v>45376</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C276">
-        <v>0.0001597220834810287</v>
+        <v>0.0001584749697940424</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3405,10 +3405,10 @@
         <v>45376</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C277">
-        <v>0.0001595565408933908</v>
+        <v>0.0001582800468895584</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3416,10 +3416,10 @@
         <v>45376</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C278">
-        <v>0.0001593595661688596</v>
+        <v>0.0001582211989443749</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3427,219 +3427,219 @@
         <v>45376</v>
       </c>
       <c r="B279">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C279">
-        <v>0.0001593595661688596</v>
+        <v>0.0001582211989443749</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B280">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C280">
-        <v>0.002143862657248974</v>
+        <v>0.0001578690280439332</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C281">
-        <v>0.09701459854841232</v>
+        <v>0.0001578690280439332</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C282">
-        <v>0.2318548858165741</v>
+        <v>0.0001578690280439332</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C283">
-        <v>0.3329271972179413</v>
+        <v>0.0001578690280439332</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B284">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C284">
-        <v>0.4196881949901581</v>
+        <v>0.0001578690280439332</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C285">
-        <v>0.46967414021492</v>
+        <v>0.03205908089876175</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B286">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C286">
-        <v>0.4787241518497467</v>
+        <v>0.3700384795665741</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B287">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C287">
-        <v>0.446471244096756</v>
+        <v>0.8946555256843567</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B288">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C288">
-        <v>0.3599939048290253</v>
+        <v>1.442912817001343</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B289">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C289">
-        <v>0.2324067801237106</v>
+        <v>1.850798487663269</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B290">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C290">
-        <v>0.1421177536249161</v>
+        <v>2.121394157409668</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C291">
-        <v>0.06275849789381027</v>
+        <v>2.205631732940674</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B292">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C292">
-        <v>0.001970298821106553</v>
+        <v>2.140905857086182</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B293">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C293">
-        <v>0.0001591177278896794</v>
+        <v>1.917539477348328</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B294">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C294">
-        <v>0.0001591245963936672</v>
+        <v>1.525398850440979</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B295">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C295">
-        <v>0.0001590874890098348</v>
+        <v>0.9636093378067017</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B296">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C296">
-        <v>0.0001590874890098348</v>
+        <v>0.4064977765083313</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B297">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C297">
-        <v>0.0001591245963936672</v>
+        <v>0.03695903345942497</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B298">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C298">
-        <v>0.0001596586807863787</v>
+        <v>0.0001580284879310057</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3647,10 +3647,10 @@
         <v>45377</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C299">
-        <v>0.0001604571589268744</v>
+        <v>0.0001580284879310057</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3658,10 +3658,10 @@
         <v>45377</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C300">
-        <v>0.0001602928969077766</v>
+        <v>0.000158569440827705</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3669,10 +3669,10 @@
         <v>45377</v>
       </c>
       <c r="B301">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C301">
-        <v>0.0001602928969077766</v>
+        <v>0.000158569440827705</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3680,10 +3680,10 @@
         <v>45377</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C302">
-        <v>0.0001602928969077766</v>
+        <v>0.000158569440827705</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3691,219 +3691,219 @@
         <v>45377</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C303">
-        <v>0.0001602928969077766</v>
+        <v>0.0001580760144861415</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B304">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>0.0009962941985577345</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B305">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C305">
-        <v>0.06007967889308929</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B306">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C306">
-        <v>0.1581352204084396</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C307">
-        <v>0.2166917026042938</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C308">
-        <v>0.2667177021503448</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B309">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C309">
-        <v>0.3281397521495819</v>
+        <v>0.02858035638928413</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C310">
-        <v>0.3837192058563232</v>
+        <v>0.3037724196910858</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B311">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C311">
-        <v>0.4072644412517548</v>
+        <v>0.7626707553863525</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C312">
-        <v>0.4335638284683228</v>
+        <v>1.270449757575989</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C313">
-        <v>0.4575664699077606</v>
+        <v>1.701719284057617</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B314">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C314">
-        <v>0.4041124582290649</v>
+        <v>2.169435262680054</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B315">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C315">
-        <v>0.2109439969062805</v>
+        <v>2.289048671722412</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B316">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C316">
-        <v>0.01385109312832355</v>
+        <v>2.187163829803467</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B317">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C317">
-        <v>0.0001594016794115305</v>
+        <v>1.899315118789673</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B318">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C318">
-        <v>0.0001594016794115305</v>
+        <v>1.436010241508484</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B319">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C319">
-        <v>0.0001594016794115305</v>
+        <v>0.8800715804100037</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B320">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C320">
-        <v>0.0001594016794115305</v>
+        <v>0.3870965838432312</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B321">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C321">
-        <v>0.0001592483022250235</v>
+        <v>0.03330014646053314</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B322">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C322">
-        <v>0.0001591031323187053</v>
+        <v>0.0001590555912116542</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3911,10 +3911,10 @@
         <v>45378</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C323">
-        <v>0.0001573850022396073</v>
+        <v>0.0001592089683981612</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3922,10 +3922,10 @@
         <v>45378</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C324">
-        <v>0.0001586412399774417</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3933,10 +3933,10 @@
         <v>45378</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C325">
-        <v>0.0001586412399774417</v>
+        <v>0.0001597499212948605</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3944,10 +3944,10 @@
         <v>45378</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C326">
-        <v>0.0001586280268384144</v>
+        <v>0.0001595965441083536</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3955,131 +3955,131 @@
         <v>45378</v>
       </c>
       <c r="B327">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C327">
-        <v>0.0001586412399774417</v>
+        <v>0.0001575971109559759</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B328">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C328">
-        <v>0.02276938036084175</v>
+        <v>0.0001588112208992243</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C329">
-        <v>0.263492226600647</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C330">
-        <v>0.6566730141639709</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B331">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C331">
-        <v>1.033753037452698</v>
+        <v>0.0001580223470227793</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B332">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C332">
-        <v>1.323937058448792</v>
+        <v>0.0001582172699272633</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B333">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C333">
-        <v>1.625063300132751</v>
+        <v>0.04343082010746002</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B334">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C334">
-        <v>1.592961311340332</v>
+        <v>0.419664740562439</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B335">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C335">
-        <v>1.404359698295593</v>
+        <v>0.9568270444869995</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B336">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C336">
-        <v>1.125017285346985</v>
+        <v>1.490223288536072</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C337">
-        <v>0.8227943181991577</v>
+        <v>1.900207042694092</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B338">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C338">
-        <v>0.5136436223983765</v>
+        <v>2.172651529312134</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
+++ b/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
       <c r="C2">
-        <v>0.2467325776815414</v>
+        <v>0.0001576009672135115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.03113193996250629</v>
+        <v>0.0001576009672135115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B4">
         <v>18</v>
       </c>
       <c r="C4">
-        <v>0.0001597753580426797</v>
+        <v>0.9179077744483948</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B5">
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0.0001597499212948605</v>
+        <v>0.3923303186893463</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6">
-        <v>0.0001595549983903766</v>
+        <v>0.009319360367953777</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="C7">
-        <v>0.0001595549983903766</v>
+        <v>0.0001576257345732301</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
       <c r="C8">
-        <v>0.0001595549983903766</v>
+        <v>0.0001576257345732301</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
       <c r="C9">
-        <v>0.0001594016794115305</v>
+        <v>0.0001587708393344656</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0001596435176907107</v>
+        <v>0.0001583463454153389</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.0001596435176907107</v>
+        <v>0.0001578529190737754</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0.0001594506757101044</v>
+        <v>0.0001577523944433779</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.0001596689544385299</v>
+        <v>0.0001578450901433825</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.0001574907073518261</v>
+        <v>0.0001583860430400819</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>0.007931297644972801</v>
+        <v>0.0001583860430400819</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>0.2772389352321625</v>
+        <v>0.0667017325758934</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>0.7338822484016418</v>
+        <v>0.5100264549255371</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>1.254413604736328</v>
+        <v>1.0895756483078</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>1.645266652107239</v>
+        <v>1.66004204750061</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1.717498064041138</v>
+        <v>2.126444339752197</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B21">
         <v>11</v>
       </c>
       <c r="C21">
-        <v>1.627941608428955</v>
+        <v>2.462629556655884</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>1.509361982345581</v>
+        <v>2.659622192382812</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B23">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>1.320156693458557</v>
+        <v>2.660629987716675</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B24">
         <v>14</v>
       </c>
       <c r="C24">
-        <v>1.070178508758545</v>
+        <v>2.577428102493286</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B25">
         <v>15</v>
       </c>
       <c r="C25">
-        <v>0.7225739359855652</v>
+        <v>2.294463872909546</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B26">
         <v>16</v>
       </c>
       <c r="C26">
-        <v>0.3163828551769257</v>
+        <v>1.838867783546448</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B27">
         <v>17</v>
       </c>
       <c r="C27">
-        <v>0.02206566743552685</v>
+        <v>1.343502879142761</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B28">
         <v>18</v>
       </c>
       <c r="C28">
-        <v>0.0001595570793142542</v>
+        <v>0.7841389775276184</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B29">
         <v>19</v>
       </c>
       <c r="C29">
-        <v>0.0001575971109559759</v>
+        <v>0.3001829385757446</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
       <c r="C30">
-        <v>0.0001575971109559759</v>
+        <v>0.00928182527422905</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B31">
         <v>21</v>
       </c>
       <c r="C31">
-        <v>0.0001597753580426797</v>
+        <v>0.0001598345552338287</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B32">
         <v>22</v>
       </c>
       <c r="C32">
-        <v>0.0001575971109559759</v>
+        <v>0.0001593104825587943</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B33">
         <v>23</v>
       </c>
       <c r="C33">
-        <v>0.0001597753580426797</v>
+        <v>0.0001593104825587943</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.0001597989175934345</v>
+        <v>0.0001573740737512708</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0.0001596039946889505</v>
+        <v>0.0001573740737512708</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>0.000159822273417376</v>
+        <v>0.0001573740737512708</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.0001576440263306722</v>
+        <v>0.0001579150266479701</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>0.0001589002640685067</v>
+        <v>0.0001579150266479701</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.01965218037366867</v>
+        <v>0.0001579150266479701</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.370158851146698</v>
+        <v>0.05018974468111992</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0.8902143836021423</v>
+        <v>0.4045252501964569</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>1.498100638389587</v>
+        <v>0.8433893322944641</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B43">
         <v>9</v>
       </c>
       <c r="C43">
-        <v>1.908197402954102</v>
+        <v>1.216207504272461</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44">
-        <v>2.174614667892456</v>
+        <v>1.484978079795837</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B45">
         <v>11</v>
       </c>
       <c r="C45">
-        <v>2.190351009368896</v>
+        <v>1.619078397750854</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B46">
         <v>12</v>
       </c>
       <c r="C46">
-        <v>1.969327569007874</v>
+        <v>1.656591653823853</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B47">
         <v>13</v>
       </c>
       <c r="C47">
-        <v>1.724496245384216</v>
+        <v>1.643807888031006</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B48">
         <v>14</v>
       </c>
       <c r="C48">
-        <v>1.360007166862488</v>
+        <v>1.423511266708374</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B49">
         <v>15</v>
       </c>
       <c r="C49">
-        <v>0.8454122543334961</v>
+        <v>1.138087630271912</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B50">
         <v>16</v>
       </c>
       <c r="C50">
-        <v>0.3625737726688385</v>
+        <v>0.9234427809715271</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B51">
         <v>17</v>
       </c>
       <c r="C51">
-        <v>0.02459748461842537</v>
+        <v>0.6638731956481934</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B52">
         <v>18</v>
       </c>
       <c r="C52">
-        <v>0.0001570561580592766</v>
+        <v>0.4307172298431396</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B53">
         <v>19</v>
       </c>
       <c r="C53">
-        <v>0.0001570561580592766</v>
+        <v>0.1809788346290588</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B54">
         <v>20</v>
       </c>
       <c r="C54">
-        <v>0.0001570561580592766</v>
+        <v>0.005618703551590443</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B55">
         <v>21</v>
       </c>
       <c r="C55">
-        <v>0.0001575971109559759</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B56">
         <v>22</v>
       </c>
       <c r="C56">
-        <v>0.0001575971109559759</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B57">
         <v>23</v>
       </c>
       <c r="C57">
-        <v>0.0001575971109559759</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0.0001578389492351562</v>
+        <v>0.0001602692354936153</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0.0001578389492351562</v>
+        <v>0.0001602692354936153</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60">
-        <v>0.0001588112208992243</v>
+        <v>0.0001602692354936153</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0.000158309965627268</v>
+        <v>0.0001602692354936153</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>0.000158115042722784</v>
+        <v>0.0001602692354936153</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>0.02848067134618759</v>
+        <v>0.0001595268840901554</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>0.4373411536216736</v>
+        <v>0.03182634338736534</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B65">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>0.9556713700294495</v>
+        <v>0.2347438484430313</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B66">
         <v>8</v>
       </c>
       <c r="C66">
-        <v>1.459940433502197</v>
+        <v>0.4313147366046906</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67">
-        <v>1.888771057128906</v>
+        <v>0.6488087177276611</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
       <c r="C68">
-        <v>2.158597707748413</v>
+        <v>0.955845057964325</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B69">
         <v>11</v>
       </c>
       <c r="C69">
-        <v>2.250055074691772</v>
+        <v>1.168546319007874</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B70">
         <v>12</v>
       </c>
       <c r="C70">
-        <v>2.179561138153076</v>
+        <v>1.36014449596405</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B71">
         <v>13</v>
       </c>
       <c r="C71">
-        <v>1.942249417304993</v>
+        <v>1.431784510612488</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B72">
         <v>14</v>
       </c>
       <c r="C72">
-        <v>1.556110143661499</v>
+        <v>1.323906660079956</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73">
-        <v>1.02247416973114</v>
+        <v>1.202357053756714</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B74">
         <v>16</v>
       </c>
       <c r="C74">
-        <v>0.4562179744243622</v>
+        <v>1.002911448478699</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B75">
         <v>17</v>
       </c>
       <c r="C75">
-        <v>0.04556521028280258</v>
+        <v>0.735551655292511</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B76">
         <v>18</v>
       </c>
       <c r="C76">
-        <v>0.0001581768301548436</v>
+        <v>0.4696428179740906</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B77">
         <v>19</v>
       </c>
       <c r="C77">
-        <v>0.0001574344787513837</v>
+        <v>0.2023128867149353</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B78">
         <v>20</v>
       </c>
       <c r="C78">
-        <v>0.0001574344787513837</v>
+        <v>0.00764854159206152</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B79">
         <v>21</v>
       </c>
       <c r="C79">
-        <v>0.0001574344787513837</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B80">
         <v>22</v>
       </c>
       <c r="C80">
-        <v>0.0001574344787513837</v>
+        <v>0.000160027397214435</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B81">
         <v>23</v>
       </c>
       <c r="C81">
-        <v>0.0001580284879310057</v>
+        <v>0.000160027397214435</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0.0001590951869729906</v>
+        <v>0.0001602692354936153</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>0.0001590951869729906</v>
+        <v>0.0001602692354936153</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>0.0001590951869729906</v>
+        <v>0.000160076393513009</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>0.0001578389492351562</v>
+        <v>0.0001593726628925651</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>0.0001578389492351562</v>
+        <v>0.0001586303114891052</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87">
-        <v>0.02270710282027721</v>
+        <v>0.0001586303114891052</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>0.3391651511192322</v>
+        <v>0.05932775884866714</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B89">
         <v>7</v>
       </c>
       <c r="C89">
-        <v>0.7949948906898499</v>
+        <v>0.4246446788311005</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B90">
         <v>8</v>
       </c>
       <c r="C90">
-        <v>1.225350975990295</v>
+        <v>0.9418852925300598</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B91">
         <v>9</v>
       </c>
       <c r="C91">
-        <v>1.579991340637207</v>
+        <v>1.434822797775269</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B92">
         <v>10</v>
       </c>
       <c r="C92">
-        <v>1.769216895103455</v>
+        <v>1.869715213775635</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B93">
         <v>11</v>
       </c>
       <c r="C93">
-        <v>1.770520329475403</v>
+        <v>2.257179498672485</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B94">
         <v>12</v>
       </c>
       <c r="C94">
-        <v>1.655708312988281</v>
+        <v>2.375224351882935</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B95">
         <v>13</v>
       </c>
       <c r="C95">
-        <v>1.392393350601196</v>
+        <v>2.362731218338013</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B96">
         <v>14</v>
       </c>
       <c r="C96">
-        <v>1.11819863319397</v>
+        <v>2.330597400665283</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B97">
         <v>15</v>
       </c>
       <c r="C97">
-        <v>0.7808413505554199</v>
+        <v>2.011744260787964</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B98">
         <v>16</v>
       </c>
       <c r="C98">
-        <v>0.3629936277866364</v>
+        <v>1.576576828956604</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B99">
         <v>17</v>
       </c>
       <c r="C99">
-        <v>0.03115135617554188</v>
+        <v>1.094473719596863</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B100">
         <v>18</v>
       </c>
       <c r="C100">
-        <v>0.0001570561580592766</v>
+        <v>0.6342677474021912</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B101">
         <v>19</v>
       </c>
       <c r="C101">
-        <v>0.0001590161264175549</v>
+        <v>0.2513701915740967</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B102">
         <v>20</v>
       </c>
       <c r="C102">
-        <v>0.0001595965441083536</v>
+        <v>0.009260794147849083</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B103">
         <v>21</v>
       </c>
       <c r="C103">
-        <v>0.0001597499212948605</v>
+        <v>0.0001587289152666926</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B104">
         <v>22</v>
       </c>
       <c r="C104">
-        <v>0.0001597499212948605</v>
+        <v>0.0001586894504725933</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B105">
         <v>23</v>
       </c>
       <c r="C105">
-        <v>0.0001597499212948605</v>
+        <v>0.0001598345552338287</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0.0001598702801857144</v>
+        <v>0.0001581164251547307</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>0.0001598702801857144</v>
+        <v>0.0001593726628925651</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108">
-        <v>0.0001598226954229176</v>
+        <v>0.0001586303114891052</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>0.0001599005190655589</v>
+        <v>0.0001586303114891052</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110">
-        <v>0.0001600974937900901</v>
+        <v>0.0001582519325893372</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>0.002137747360393405</v>
+        <v>0.0001583463454153389</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B112">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>0.09756838530302048</v>
+        <v>0.07018809020519257</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B113">
         <v>7</v>
       </c>
       <c r="C113">
-        <v>0.2187507003545761</v>
+        <v>0.4808073341846466</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B114">
         <v>8</v>
       </c>
       <c r="C114">
-        <v>0.3239848017692566</v>
+        <v>1.032833218574524</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B115">
         <v>9</v>
       </c>
       <c r="C115">
-        <v>0.4318337142467499</v>
+        <v>1.500226140022278</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B116">
         <v>10</v>
       </c>
       <c r="C116">
-        <v>0.5206496119499207</v>
+        <v>1.834686756134033</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B117">
         <v>11</v>
       </c>
       <c r="C117">
-        <v>0.5930038094520569</v>
+        <v>2.15451455116272</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B118">
         <v>12</v>
       </c>
       <c r="C118">
-        <v>0.6056520938873291</v>
+        <v>2.176562547683716</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B119">
         <v>13</v>
       </c>
       <c r="C119">
-        <v>0.5680297017097473</v>
+        <v>2.040595769882202</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B120">
         <v>14</v>
       </c>
       <c r="C120">
-        <v>0.4991239011287689</v>
+        <v>1.751767992973328</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B121">
         <v>15</v>
       </c>
       <c r="C121">
-        <v>0.361459881067276</v>
+        <v>1.49534273147583</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B122">
         <v>16</v>
       </c>
       <c r="C122">
-        <v>0.1618728041648865</v>
+        <v>1.181421637535095</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B123">
         <v>17</v>
       </c>
       <c r="C123">
-        <v>0.007765291724354029</v>
+        <v>0.8100497722625732</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B124">
         <v>18</v>
       </c>
       <c r="C124">
-        <v>0.0001596284419065341</v>
+        <v>0.4885904490947723</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B125">
         <v>19</v>
       </c>
       <c r="C125">
-        <v>0.0001594335190020502</v>
+        <v>0.2052240818738937</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B126">
         <v>20</v>
       </c>
       <c r="C126">
-        <v>0.0001595549983903766</v>
+        <v>0.007620865013450384</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B127">
         <v>21</v>
       </c>
       <c r="C127">
-        <v>0.0001594016794115305</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B128">
         <v>22</v>
       </c>
       <c r="C128">
-        <v>0.0001594016794115305</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B129">
         <v>23</v>
       </c>
       <c r="C129">
-        <v>0.0001594016794115305</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>0.0001594506757101044</v>
+        <v>0.0001602692354936153</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>0.0001587469450896606</v>
+        <v>0.0001602692354936153</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132">
-        <v>0.0001586412399774417</v>
+        <v>0.0001595268840901554</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133">
-        <v>0.0001586412399774417</v>
+        <v>0.0001595268840901554</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134">
-        <v>0.0001586412399774417</v>
+        <v>0.0001595268840901554</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>0.02539363130927086</v>
+        <v>0.0001595268840901554</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B136">
         <v>6</v>
       </c>
       <c r="C136">
-        <v>0.3457054197788239</v>
+        <v>0.03770391270518303</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B137">
         <v>7</v>
       </c>
       <c r="C137">
-        <v>0.8098284006118774</v>
+        <v>0.2379263490438461</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B138">
         <v>8</v>
       </c>
       <c r="C138">
-        <v>1.30799674987793</v>
+        <v>0.4355457723140717</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B139">
         <v>9</v>
       </c>
       <c r="C139">
-        <v>1.815527439117432</v>
+        <v>0.7053127288818359</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B140">
         <v>10</v>
       </c>
       <c r="C140">
-        <v>2.056974649429321</v>
+        <v>0.9478297233581543</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B141">
         <v>11</v>
       </c>
       <c r="C141">
-        <v>1.993247628211975</v>
+        <v>1.110220551490784</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
       <c r="C142">
-        <v>1.929800152778625</v>
+        <v>1.354164123535156</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B143">
         <v>13</v>
       </c>
       <c r="C143">
-        <v>1.654867172241211</v>
+        <v>1.509341478347778</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B144">
         <v>14</v>
       </c>
       <c r="C144">
-        <v>1.235650658607483</v>
+        <v>1.470334410667419</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B145">
         <v>15</v>
       </c>
       <c r="C145">
-        <v>0.7419423460960388</v>
+        <v>1.333840370178223</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B146">
         <v>16</v>
       </c>
       <c r="C146">
-        <v>0.2871218621730804</v>
+        <v>1.114222049713135</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B147">
         <v>17</v>
       </c>
       <c r="C147">
-        <v>0.02217180840671062</v>
+        <v>0.8205394148826599</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B148">
         <v>18</v>
       </c>
       <c r="C148">
-        <v>0.0001597499212948605</v>
+        <v>0.5168317556381226</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B149">
         <v>19</v>
       </c>
       <c r="C149">
-        <v>0.0001597499212948605</v>
+        <v>0.2303493767976761</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B150">
         <v>20</v>
       </c>
       <c r="C150">
-        <v>0.0001597499212948605</v>
+        <v>0.01359877083450556</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B151">
         <v>21</v>
       </c>
       <c r="C151">
-        <v>0.0001597499212948605</v>
+        <v>0.0001587289152666926</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B152">
         <v>22</v>
       </c>
       <c r="C152">
-        <v>0.0001597499212948605</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B153">
         <v>23</v>
       </c>
       <c r="C153">
-        <v>0.0001597499212948605</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>0.0001599917595740408</v>
+        <v>0.0001602692354936153</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>0.0001599917595740408</v>
+        <v>0.0001602692354936153</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156">
-        <v>0.0001598383823875338</v>
+        <v>0.0001595268840901554</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>0.0001578389492351562</v>
+        <v>0.0001593735069036484</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B158">
         <v>4</v>
       </c>
       <c r="C158">
-        <v>0.0001590951869729906</v>
+        <v>0.000159334042109549</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
       <c r="C159">
-        <v>0.0196599718183279</v>
+        <v>0.000159334042109549</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B160">
         <v>6</v>
       </c>
       <c r="C160">
-        <v>0.2235625386238098</v>
+        <v>0.05640982463955879</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B161">
         <v>7</v>
       </c>
       <c r="C161">
-        <v>0.5831925868988037</v>
+        <v>0.335533618927002</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B162">
         <v>8</v>
       </c>
       <c r="C162">
-        <v>0.9711896181106567</v>
+        <v>0.6499410271644592</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B163">
         <v>9</v>
       </c>
       <c r="C163">
-        <v>1.346056699752808</v>
+        <v>0.9639258980751038</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B164">
         <v>10</v>
       </c>
       <c r="C164">
-        <v>1.854142427444458</v>
+        <v>1.244773626327515</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B165">
         <v>11</v>
       </c>
       <c r="C165">
-        <v>1.995344281196594</v>
+        <v>1.403364300727844</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B166">
         <v>12</v>
       </c>
       <c r="C166">
-        <v>1.870505213737488</v>
+        <v>1.624637126922607</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B167">
         <v>13</v>
       </c>
       <c r="C167">
-        <v>1.569734215736389</v>
+        <v>1.751561045646667</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B168">
         <v>14</v>
       </c>
       <c r="C168">
-        <v>1.07269823551178</v>
+        <v>1.71673572063446</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B169">
         <v>15</v>
       </c>
       <c r="C169">
-        <v>0.5916962027549744</v>
+        <v>1.637070655822754</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B170">
         <v>16</v>
       </c>
       <c r="C170">
-        <v>0.2637765407562256</v>
+        <v>1.332810997962952</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
+++ b/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0001576009672135115</v>
+        <v>0.0002187080535804853</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001576009672135115</v>
+        <v>0.0002004726702580228</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.9179077744483948</v>
+        <v>2.475225687026978</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.3923303186893463</v>
+        <v>2.652877807617188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0.009319360367953777</v>
+        <v>2.66847825050354</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0.0001576257345732301</v>
+        <v>2.567375421524048</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.0001576257345732301</v>
+        <v>2.223761558532715</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>0.0001587708393344656</v>
+        <v>1.706972718238831</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0.0001583463454153389</v>
+        <v>1.227087736129761</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0.0001578529190737754</v>
+        <v>0.8270549178123474</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>0.0001577523944433779</v>
+        <v>0.4381086826324463</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>0.0001578450901433825</v>
+        <v>0.08174794167280197</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>0.0001583860430400819</v>
+        <v>0.0001577594666741788</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>0.0001583860430400819</v>
+        <v>0.0001579857198521495</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>0.0667017325758934</v>
+        <v>0.0001579857198521495</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5100264549255371</v>
+        <v>0.0001582275581313297</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1.0895756483078</v>
+        <v>0.0001582275581313297</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>1.66004204750061</v>
+        <v>0.0001582275581313297</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>2.126444339752197</v>
+        <v>0.0001578491792315617</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>2.462629556655884</v>
+        <v>0.0001579435920575634</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>2.659622192382812</v>
+        <v>0.0001645800221012905</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>2.660629987716675</v>
+        <v>0.188400074839592</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>2.577428102493286</v>
+        <v>0.6545069813728333</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>2.294463872909546</v>
+        <v>1.278810381889343</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>1.838867783546448</v>
+        <v>1.749605417251587</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>1.343502879142761</v>
+        <v>2.206234693527222</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>0.7841389775276184</v>
+        <v>2.505345821380615</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>0.3001829385757446</v>
+        <v>2.57763409614563</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>0.00928182527422905</v>
+        <v>2.462201356887817</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>0.0001598345552338287</v>
+        <v>2.276879787445068</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>0.0001593104825587943</v>
+        <v>1.984637856483459</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>0.0001593104825587943</v>
+        <v>1.580297350883484</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>0.0001573740737512708</v>
+        <v>1.185564517974854</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>0.0001573740737512708</v>
+        <v>0.8031451106071472</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>0.0001573740737512708</v>
+        <v>0.4378019571304321</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>0.0001579150266479701</v>
+        <v>0.08522433787584305</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <v>0.0001579150266479701</v>
+        <v>0.0001579857198521495</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>0.0001579150266479701</v>
+        <v>0.0001579857198521495</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>0.05018974468111992</v>
+        <v>0.000157701811986044</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.4045252501964569</v>
+        <v>0.0001579435920575634</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.8433893322944641</v>
+        <v>0.0001579435920575634</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>1.216207504272461</v>
+        <v>0.0001579435920575634</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>1.484978079795837</v>
+        <v>0.0001579435920575634</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>1.619078397750854</v>
+        <v>0.0001590886968187988</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>1.656591653823853</v>
+        <v>0.0001645800221012905</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>1.643807888031006</v>
+        <v>0.1941694766283035</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1.423511266708374</v>
+        <v>0.7003744840621948</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>1.138087630271912</v>
+        <v>1.298447132110596</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.9234427809715271</v>
+        <v>1.8224937915802</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>0.6638731956481934</v>
+        <v>2.225600004196167</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>0.4307172298431396</v>
+        <v>2.560548305511475</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>0.1809788346290588</v>
+        <v>2.624260187149048</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>0.005618703551590443</v>
+        <v>2.603957176208496</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>0.0001588822924531996</v>
+        <v>2.628819227218628</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>0.0001588822924531996</v>
+        <v>2.481327533721924</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>0.0001588822924531996</v>
+        <v>2.074939012527466</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>0.0001602692354936153</v>
+        <v>1.65073573589325</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>0.0001602692354936153</v>
+        <v>1.136485457420349</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>0.0001602692354936153</v>
+        <v>0.5785037875175476</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>0.0001602692354936153</v>
+        <v>0.1335577368736267</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C62">
-        <v>0.0001602692354936153</v>
+        <v>0.0001572004985064268</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C63">
-        <v>0.0001595268840901554</v>
+        <v>0.0001572004985064268</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C64">
-        <v>0.03182634338736534</v>
+        <v>0.0001572004985064268</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.2347438484430313</v>
+        <v>0.000157442336785607</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.4313147366046906</v>
+        <v>0.000157442336785607</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>0.6488087177276611</v>
+        <v>0.0001585874415468425</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>0.955845057964325</v>
+        <v>0.0001578450901433825</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>1.168546319007874</v>
+        <v>0.0001578450901433825</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>1.36014449596405</v>
+        <v>0.0009530735551379621</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>1.431784510612488</v>
+        <v>0.2450162917375565</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>1.323906660079956</v>
+        <v>0.740935206413269</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>1.202357053756714</v>
+        <v>1.320653080940247</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>1.002911448478699</v>
+        <v>1.817393064498901</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>0.735551655292511</v>
+        <v>2.17650580406189</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>0.4696428179740906</v>
+        <v>2.497031688690186</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>0.2023128867149353</v>
+        <v>2.559516668319702</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>0.00764854159206152</v>
+        <v>2.540885448455811</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>0.0001588822924531996</v>
+        <v>2.466822147369385</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B80">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>0.000160027397214435</v>
+        <v>2.301398992538452</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>0.000160027397214435</v>
+        <v>1.84662401676178</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>0.0001602692354936153</v>
+        <v>1.41866409778595</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>0.0001602692354936153</v>
+        <v>0.9412660598754883</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C84">
-        <v>0.000160076393513009</v>
+        <v>0.456944614648819</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>0.0001593726628925651</v>
+        <v>0.0868082121014595</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>0.0001586303114891052</v>
+        <v>0.0001586894504725933</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C87">
-        <v>0.0001586303114891052</v>
+        <v>0.0001598345552338287</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C88">
-        <v>0.05932775884866714</v>
+        <v>0.0001591316686244681</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.4246446788311005</v>
+        <v>0.000159334042109549</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>0.9418852925300598</v>
+        <v>0.000159334042109549</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>1.434822797775269</v>
+        <v>0.0001573740737512708</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>1.869715213775635</v>
+        <v>0.0001586303114891052</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>2.257179498672485</v>
+        <v>0.0001586303114891052</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>2.375224351882935</v>
+        <v>0.0001646625896682963</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B95">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>2.362731218338013</v>
+        <v>0.1717667579650879</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>2.330597400665283</v>
+        <v>0.5560612678527832</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>2.011744260787964</v>
+        <v>0.9764404892921448</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>1.576576828956604</v>
+        <v>1.308211803436279</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B99">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>1.094473719596863</v>
+        <v>1.597762227058411</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B100">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>0.6342677474021912</v>
+        <v>1.739530682563782</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B101">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>0.2513701915740967</v>
+        <v>1.888240456581116</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B102">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C102">
-        <v>0.009260794147849083</v>
+        <v>2.058709621429443</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C103">
-        <v>0.0001587289152666926</v>
+        <v>2.094027519226074</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B104">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>0.0001586894504725933</v>
+        <v>2.000317573547363</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B105">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>0.0001598345552338287</v>
+        <v>1.713517546653748</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C106">
-        <v>0.0001581164251547307</v>
+        <v>1.356369614601135</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>0.0001593726628925651</v>
+        <v>0.9230590462684631</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>0.0001586303114891052</v>
+        <v>0.4614590406417847</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C109">
-        <v>0.0001586303114891052</v>
+        <v>0.09603255987167358</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C110">
-        <v>0.0001582519325893372</v>
+        <v>0.000156729482114315</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>0.0001583463454153389</v>
+        <v>0.000156729482114315</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C112">
-        <v>0.07018809020519257</v>
+        <v>0.0001579857198521495</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.4808073341846466</v>
+        <v>0.0001593726628925651</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>1.032833218574524</v>
+        <v>0.0001593726628925651</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>1.500226140022278</v>
+        <v>0.0001586303114891052</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>1.834686756134033</v>
+        <v>0.0001586303114891052</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>2.15451455116272</v>
+        <v>0.0001586303114891052</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>2.176562547683716</v>
+        <v>0.000164121636771597</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>2.040595769882202</v>
+        <v>0.1709943264722824</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>1.751767992973328</v>
+        <v>0.5604127049446106</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>1.49534273147583</v>
+        <v>1.028624892234802</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>1.181421637535095</v>
+        <v>1.416737198829651</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>0.8100497722625732</v>
+        <v>1.642627120018005</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>0.4885904490947723</v>
+        <v>1.82036828994751</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>0.2052240818738937</v>
+        <v>1.88007390499115</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>0.007620865013450384</v>
+        <v>1.908231973648071</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B127">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>0.0001588822924531996</v>
+        <v>1.811865091323853</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B128">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>0.0001588822924531996</v>
+        <v>1.571103811264038</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B129">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>0.0001588822924531996</v>
+        <v>1.206347346305847</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C130">
-        <v>0.0001602692354936153</v>
+        <v>0.8170590400695801</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>0.0001602692354936153</v>
+        <v>0.5357166528701782</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C132">
-        <v>0.0001595268840901554</v>
+        <v>0.3055897355079651</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>0.0001595268840901554</v>
+        <v>0.06954920291900635</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C134">
-        <v>0.0001595268840901554</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C135">
-        <v>0.0001595268840901554</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C136">
-        <v>0.03770391270518303</v>
+        <v>0.0001588822924531996</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0.2379263490438461</v>
+        <v>0.0001589707535458729</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>0.4355457723140717</v>
+        <v>0.0001601158583071083</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>0.7053127288818359</v>
+        <v>0.0001601158583071083</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>0.9478297233581543</v>
+        <v>0.000160076393513009</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>1.110220551490784</v>
+        <v>0.000160076393513009</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B142">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>1.354164123535156</v>
+        <v>0.0001655676605878398</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B143">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>1.509341478347778</v>
+        <v>0.1556694656610489</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B144">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C144">
-        <v>1.470334410667419</v>
+        <v>0.475413590669632</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B145">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>1.333840370178223</v>
+        <v>0.8517737984657288</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B146">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>1.114222049713135</v>
+        <v>1.201460957527161</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B147">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>0.8205394148826599</v>
+        <v>1.53957986831665</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B148">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C148">
-        <v>0.5168317556381226</v>
+        <v>1.817607164382935</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B149">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <v>0.2303493767976761</v>
+        <v>1.95941174030304</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>0.01359877083450556</v>
+        <v>2.044864177703857</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B151">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>0.0001587289152666926</v>
+        <v>2.035307884216309</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B152">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C152">
-        <v>0.0001588822924531996</v>
+        <v>1.883547425270081</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B153">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C153">
-        <v>0.0001588822924531996</v>
+        <v>1.517380833625793</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C154">
-        <v>0.0001602692354936153</v>
+        <v>1.079500198364258</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C155">
-        <v>0.0001602692354936153</v>
+        <v>0.6920565962791443</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C156">
-        <v>0.0001595268840901554</v>
+        <v>0.3773455917835236</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>0.0001593735069036484</v>
+        <v>0.07691244781017303</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C158">
-        <v>0.000159334042109549</v>
+        <v>0.0001582188997417688</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C159">
-        <v>0.000159334042109549</v>
+        <v>0.0001586894504725933</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B160">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>0.05640982463955879</v>
+        <v>0.0001589077292010188</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>0.335533618927002</v>
+        <v>0.0001569713203934953</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B162">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>0.6499410271644592</v>
+        <v>0.0001569713203934953</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B163">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>0.9639258980751038</v>
+        <v>0.0001569713203934953</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>1.244773626327515</v>
+        <v>0.0001582275581313297</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B165">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>1.403364300727844</v>
+        <v>0.0001593726628925651</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B166">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>1.624637126922607</v>
+        <v>0.0009838492842391133</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B167">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>1.751561045646667</v>
+        <v>0.1763741075992584</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B168">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>1.71673572063446</v>
+        <v>0.579133152961731</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B169">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C169">
-        <v>1.637070655822754</v>
+        <v>1.089095830917358</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B170">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>1.332810997962952</v>
+        <v>1.54125964641571</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
+++ b/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.0002187080535804853</v>
+        <v>0.0002275426522828639</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.0002004726702580228</v>
+        <v>0.0002187080535804853</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2.475225687026978</v>
+        <v>1.760904669761658</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>2.652877807617188</v>
+        <v>2.154749393463135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>2.66847825050354</v>
+        <v>2.46923565864563</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>2.567375421524048</v>
+        <v>2.606820106506348</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>2.223761558532715</v>
+        <v>2.601152658462524</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>1.706972718238831</v>
+        <v>2.546304702758789</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>1.227087736129761</v>
+        <v>2.379015922546387</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0.8270549178123474</v>
+        <v>2.073038578033447</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.4381086826324463</v>
+        <v>1.662516713142395</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0.08174794167280197</v>
+        <v>1.156172513961792</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>0.0001577594666741788</v>
+        <v>0.6310530304908752</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>0.0001579857198521495</v>
+        <v>0.1906849592924118</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>0.0001579857198521495</v>
+        <v>0.0001588019513292238</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>0.0001582275581313297</v>
+        <v>0.0001592774206073955</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>0.0001582275581313297</v>
+        <v>0.0001571685425005853</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0001582275581313297</v>
+        <v>0.0001589238381711766</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.0001578491792315617</v>
+        <v>0.0001584225828992203</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>0.0001579435920575634</v>
+        <v>0.0001584225828992203</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0.0001645800221012905</v>
+        <v>0.0001584225828992203</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>0.188400074839592</v>
+        <v>0.0001584225828992203</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>0.6545069813728333</v>
+        <v>0.003628345672041178</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>1.278810381889343</v>
+        <v>0.2545688450336456</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>1.749605417251587</v>
+        <v>0.7450649738311768</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>2.206234693527222</v>
+        <v>1.272113084793091</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>2.505345821380615</v>
+        <v>1.76319944858551</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>2.57763409614563</v>
+        <v>2.155338764190674</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>2.462201356887817</v>
+        <v>2.443131923675537</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>2.276879787445068</v>
+        <v>2.612744331359863</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>1.984637856483459</v>
+        <v>2.64654278755188</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>1.580297350883484</v>
+        <v>2.586836099624634</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>1.185564517974854</v>
+        <v>2.393256902694702</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>0.8031451106071472</v>
+        <v>2.082457780838013</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>0.4378019571304321</v>
+        <v>1.66527259349823</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0.08522433787584305</v>
+        <v>1.172932147979736</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>0.0001579857198521495</v>
+        <v>0.6597378849983215</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>0.0001579857198521495</v>
+        <v>0.1931212097406387</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>0.000157701811986044</v>
+        <v>0.0001795311691239476</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>0.0001579435920575634</v>
+        <v>0.0001827214728109539</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>0.0001579435920575634</v>
+        <v>0.0001533106405986473</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.0001579435920575634</v>
+        <v>0.0002050684561254457</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0.0001579435920575634</v>
+        <v>0.0001666245225351304</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>0.0001590886968187988</v>
+        <v>0.0001666245225351304</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>0.0001645800221012905</v>
+        <v>0.0001456885074730963</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>0.1941694766283035</v>
+        <v>0.0001456885074730963</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>0.7003744840621948</v>
+        <v>0.002154151676222682</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>1.298447132110596</v>
+        <v>0.1868282705545425</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>1.8224937915802</v>
+        <v>0.6435718536376953</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>2.225600004196167</v>
+        <v>1.184438586235046</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>2.560548305511475</v>
+        <v>1.64799177646637</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>2.624260187149048</v>
+        <v>2.040167808532715</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>2.603957176208496</v>
+        <v>2.34525728225708</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>2.628819227218628</v>
+        <v>2.545957326889038</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>2.481327533721924</v>
+        <v>2.506603002548218</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57">
-        <v>2.074939012527466</v>
+        <v>2.338665008544922</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>1.65073573589325</v>
+        <v>2.176817417144775</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>1.136485457420349</v>
+        <v>1.834570646286011</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>0.5785037875175476</v>
+        <v>1.3726966381073</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>0.1335577368736267</v>
+        <v>0.9819134473800659</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>0.0001572004985064268</v>
+        <v>0.5660942196846008</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>0.0001572004985064268</v>
+        <v>0.185774177312851</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64">
-        <v>0.0001572004985064268</v>
+        <v>0.0007381041068583727</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>0.000157442336785607</v>
+        <v>0.0001592774206073955</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>0.000157442336785607</v>
+        <v>0.0001592774206073955</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0.0001585874415468425</v>
+        <v>0.0001589238381711766</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>0.0001578450901433825</v>
+        <v>0.0001589238381711766</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>0.0001578450901433825</v>
+        <v>0.0001589238381711766</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>0.0009530735551379621</v>
+        <v>0.0001589238381711766</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>0.2450162917375565</v>
+        <v>0.0001589238381711766</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>0.740935206413269</v>
+        <v>0.002147708088159561</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>1.320653080940247</v>
+        <v>0.2232353985309601</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>1.817393064498901</v>
+        <v>0.7023349404335022</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>2.17650580406189</v>
+        <v>1.256713151931763</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>2.497031688690186</v>
+        <v>1.695017457008362</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>2.559516668319702</v>
+        <v>2.102326393127441</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>2.540885448455811</v>
+        <v>2.397971391677856</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>2.466822147369385</v>
+        <v>2.551655054092407</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>2.301398992538452</v>
+        <v>2.561068296432495</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>1.84662401676178</v>
+        <v>2.502947092056274</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>1.41866409778595</v>
+        <v>2.316451072692871</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>0.9412660598754883</v>
+        <v>2.003119468688965</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>0.456944614648819</v>
+        <v>1.589000701904297</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>0.0868082121014595</v>
+        <v>1.105906963348389</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86">
-        <v>0.0001586894504725933</v>
+        <v>0.5754007697105408</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>0.0001598345552338287</v>
+        <v>0.1590018421411514</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B88">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C88">
-        <v>0.0001591316686244681</v>
+        <v>0.0002053030329989269</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C89">
-        <v>0.000159334042109549</v>
+        <v>0.0001740398874972016</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>0.000159334042109549</v>
+        <v>0.0001827214728109539</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.0001573740737512708</v>
+        <v>0.000175313776708208</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>0.0001586303114891052</v>
+        <v>0.0002050684561254457</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>0.0001586303114891052</v>
+        <v>0.0001666245225351304</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>0.0001646625896682963</v>
+        <v>0.0001456885074730963</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>0.1717667579650879</v>
+        <v>0.000145187193993479</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>0.5560612678527832</v>
+        <v>0.002106526168063283</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>0.9764404892921448</v>
+        <v>0.2355164736509323</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>1.308211803436279</v>
+        <v>0.6936244368553162</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>1.597762227058411</v>
+        <v>1.215427398681641</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>1.739530682563782</v>
+        <v>1.662671446800232</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>1.888240456581116</v>
+        <v>2.067657470703125</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>2.058709621429443</v>
+        <v>2.348293304443359</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C103">
-        <v>2.094027519226074</v>
+        <v>2.534437894821167</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104">
-        <v>2.000317573547363</v>
+        <v>2.574333906173706</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105">
-        <v>1.713517546653748</v>
+        <v>2.491785049438477</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>1.356369614601135</v>
+        <v>2.303932189941406</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107">
-        <v>0.9230590462684631</v>
+        <v>1.888572931289673</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C108">
-        <v>0.4614590406417847</v>
+        <v>1.344133615493774</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B109">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>0.09603255987167358</v>
+        <v>0.8297916650772095</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C110">
-        <v>0.000156729482114315</v>
+        <v>0.4072135984897614</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C111">
-        <v>0.000156729482114315</v>
+        <v>0.1029859259724617</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C112">
-        <v>0.0001579857198521495</v>
+        <v>0.0001868116087280214</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C113">
-        <v>0.0001593726628925651</v>
+        <v>0.0001540539669804275</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C114">
-        <v>0.0001593726628925651</v>
+        <v>0.0001602390402695164</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0.0001586303114891052</v>
+        <v>0.000180451272171922</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>0.0001586303114891052</v>
+        <v>0.000159207804244943</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>0.0001586303114891052</v>
+        <v>0.0001589238381711766</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>0.000164121636771597</v>
+        <v>0.0001584225828992203</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>0.1709943264722824</v>
+        <v>0.0001584225828992203</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120">
-        <v>0.5604127049446106</v>
+        <v>0.002084082225337625</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121">
-        <v>1.028624892234802</v>
+        <v>0.2325144559144974</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>1.416737198829651</v>
+        <v>0.6881293058395386</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>1.642627120018005</v>
+        <v>1.209956288337708</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C124">
-        <v>1.82036828994751</v>
+        <v>1.662657022476196</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C125">
-        <v>1.88007390499115</v>
+        <v>2.068156003952026</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126">
-        <v>1.908231973648071</v>
+        <v>2.348536014556885</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C127">
-        <v>1.811865091323853</v>
+        <v>2.509704828262329</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C128">
-        <v>1.571103811264038</v>
+        <v>2.378438949584961</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C129">
-        <v>1.206347346305847</v>
+        <v>2.120308637619019</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130">
-        <v>0.8170590400695801</v>
+        <v>1.802278995513916</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131">
-        <v>0.5357166528701782</v>
+        <v>1.422817707061768</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B132">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C132">
-        <v>0.3055897355079651</v>
+        <v>0.9951586127281189</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C133">
-        <v>0.06954920291900635</v>
+        <v>0.6391035914421082</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B134">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134">
-        <v>0.0001588822924531996</v>
+        <v>0.3911237716674805</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B135">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C135">
-        <v>0.0001588822924531996</v>
+        <v>0.1229539588093758</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C136">
-        <v>0.0001588822924531996</v>
+        <v>0.0001655514934100211</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C137">
-        <v>0.0001589707535458729</v>
+        <v>0.0001579118834342808</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C138">
-        <v>0.0001601158583071083</v>
+        <v>0.0001579118834342808</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0.0001601158583071083</v>
+        <v>0.0001577072689542547</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>0.000160076393513009</v>
+        <v>0.0001579515665071085</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>0.000160076393513009</v>
+        <v>0.000159207804244943</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>0.0001655676605878398</v>
+        <v>0.000159207804244943</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>0.1556694656610489</v>
+        <v>0.000158829425345175</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>0.475413590669632</v>
+        <v>0.002126031322404742</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>0.8517737984657288</v>
+        <v>0.1877221316099167</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C146">
-        <v>1.201460957527161</v>
+        <v>0.6351311802864075</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>1.53957986831665</v>
+        <v>1.196741104125977</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>1.817607164382935</v>
+        <v>1.680967807769775</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C149">
-        <v>1.95941174030304</v>
+        <v>2.087153196334839</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B150">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150">
-        <v>2.044864177703857</v>
+        <v>2.370091438293457</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C151">
-        <v>2.035307884216309</v>
+        <v>2.54635214805603</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C152">
-        <v>1.883547425270081</v>
+        <v>2.546266317367554</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C153">
-        <v>1.517380833625793</v>
+        <v>2.501011848449707</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C154">
-        <v>1.079500198364258</v>
+        <v>2.322828531265259</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B155">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C155">
-        <v>0.6920565962791443</v>
+        <v>2.010493755340576</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B156">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C156">
-        <v>0.3773455917835236</v>
+        <v>1.609051823616028</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C157">
-        <v>0.07691244781017303</v>
+        <v>1.112701892852783</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C158">
-        <v>0.0001582188997417688</v>
+        <v>0.577181875705719</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B159">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C159">
-        <v>0.0001586894504725933</v>
+        <v>0.1685261279344559</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B160">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C160">
-        <v>0.0001589077292010188</v>
+        <v>0.0001882358483271673</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C161">
-        <v>0.0001569713203934953</v>
+        <v>0.0001535946066724136</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C162">
-        <v>0.0001569713203934953</v>
+        <v>0.0001595613284735009</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>0.0001569713203934953</v>
+        <v>0.000159207804244943</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>0.0001582275581313297</v>
+        <v>0.0001589238381711766</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165">
-        <v>0.0001593726628925651</v>
+        <v>0.0001589238381711766</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>0.0009838492842391133</v>
+        <v>0.0001589238381711766</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>0.1763741075992584</v>
+        <v>0.0001589238381711766</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>0.579133152961731</v>
+        <v>0.002118383767083287</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>1.089095830917358</v>
+        <v>0.2057216316461563</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C170">
-        <v>1.54125964641571</v>
+        <v>0.6891058683395386</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
+++ b/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.0002275426522828639</v>
+        <v>0.0002005199348786846</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.0002187080535804853</v>
+        <v>0.0002026544680120423</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1.760904669761658</v>
+        <v>1.948278903961182</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>2.154749393463135</v>
+        <v>1.870068311691284</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>2.46923565864563</v>
+        <v>1.662756681442261</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>2.606820106506348</v>
+        <v>1.374861121177673</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>2.601152658462524</v>
+        <v>1.175609350204468</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>2.546304702758789</v>
+        <v>0.9332816004753113</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>2.379015922546387</v>
+        <v>0.6385995149612427</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>2.073038578033447</v>
+        <v>0.3378545641899109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>1.662516713142395</v>
+        <v>0.04311482235789299</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>1.156172513961792</v>
+        <v>0.0002345393586438149</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.6310530304908752</v>
+        <v>0.0001749836810631678</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>0.1906849592924118</v>
+        <v>0.0001624542928766459</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0001588019513292238</v>
+        <v>0.000228477903874591</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.0001592774206073955</v>
+        <v>0.0001912958396133035</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.0001571685425005853</v>
+        <v>0.0001577545335749164</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.0001589238381711766</v>
+        <v>0.0001579988311277702</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.0001584225828992203</v>
+        <v>0.0001592550688656047</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.0001584225828992203</v>
+        <v>0.0001592550688656047</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.0001584225828992203</v>
+        <v>0.04244839027523994</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.0001584225828992203</v>
+        <v>0.349784791469574</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.003628345672041178</v>
+        <v>0.79013592004776</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.2545688450336456</v>
+        <v>1.184518575668335</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.7450649738311768</v>
+        <v>1.534364104270935</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>1.272113084793091</v>
+        <v>1.794179081916809</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>1.76319944858551</v>
+        <v>1.938094139099121</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>2.155338764190674</v>
+        <v>2.002877950668335</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>2.443131923675537</v>
+        <v>1.997236132621765</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>2.612744331359863</v>
+        <v>1.936636805534363</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>2.64654278755188</v>
+        <v>1.653717875480652</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>2.586836099624634</v>
+        <v>1.225124001502991</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>2.393256902694702</v>
+        <v>0.7724766135215759</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>2.082457780838013</v>
+        <v>0.3822441399097443</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>1.66527259349823</v>
+        <v>0.04852451011538506</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>1.172932147979736</v>
+        <v>0.0001520569494459778</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>0.6597378849983215</v>
+        <v>0.0001572158071212471</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>0.1931212097406387</v>
+        <v>0.0001572158071212471</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.0001795311691239476</v>
+        <v>0.0001588766899658367</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.0001827214728109539</v>
+        <v>0.000158841154188849</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B42">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.0001533106405986473</v>
+        <v>0.0001580485695740208</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.0002050684561254457</v>
+        <v>0.0001585080026416108</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.0001666245225351304</v>
+        <v>0.0001591713953530416</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.0001666245225351304</v>
+        <v>0.0001591713953530416</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.0001456885074730963</v>
+        <v>0.02247311174869537</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0.0001456885074730963</v>
+        <v>0.208468034863472</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.002154151676222682</v>
+        <v>0.4941886067390442</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.1868282705545425</v>
+        <v>0.8104725480079651</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.6435718536376953</v>
+        <v>1.186731934547424</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>1.184438586235046</v>
+        <v>1.476571202278137</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>1.64799177646637</v>
+        <v>1.62332284450531</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>2.040167808532715</v>
+        <v>1.694435000419617</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>2.34525728225708</v>
+        <v>1.646882057189941</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>2.545957326889038</v>
+        <v>1.45395302772522</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>2.506603002548218</v>
+        <v>1.256271481513977</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>2.338665008544922</v>
+        <v>0.9966081380844116</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>2.176817417144775</v>
+        <v>0.6651232838630676</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>1.834570646286011</v>
+        <v>0.3161895871162415</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B60">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>1.3726966381073</v>
+        <v>0.0358719564974308</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>0.9819134473800659</v>
+        <v>0.0001611654151929542</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.5660942196846008</v>
+        <v>0.0001581519900355488</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B63">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>0.185774177312851</v>
+        <v>0.0001580305106472224</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.0007381041068583727</v>
+        <v>0.0001597858499735594</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B65">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.0001592774206073955</v>
+        <v>0.0001599073293618858</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0.0001592774206073955</v>
+        <v>0.0001599073293618858</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>0.0001589238381711766</v>
+        <v>0.0001597539521753788</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>0.0001589238381711766</v>
+        <v>0.0001577189977979288</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>0.0001589238381711766</v>
+        <v>0.000158841154188849</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>0.0001589238381711766</v>
+        <v>0.04916399717330933</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>0.0001589238381711766</v>
+        <v>0.4271045029163361</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>0.002147708088159561</v>
+        <v>0.9755824208259583</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.2232353985309601</v>
+        <v>1.490224599838257</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.7023349404335022</v>
+        <v>1.891738891601562</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>1.256713151931763</v>
+        <v>2.231437206268311</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>1.695017457008362</v>
+        <v>2.349239587783813</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>2.102326393127441</v>
+        <v>2.304383516311646</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>2.397971391677856</v>
+        <v>2.128531932830811</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>2.551655054092407</v>
+        <v>1.845899105072021</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>2.561068296432495</v>
+        <v>1.438829660415649</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>2.502947092056274</v>
+        <v>0.9395054578781128</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>2.316451072692871</v>
+        <v>0.52431321144104</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>2.003119468688965</v>
+        <v>0.21784508228302</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>1.589000701904297</v>
+        <v>0.02182049117982388</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B85">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>1.105906963348389</v>
+        <v>0.0001581519900355488</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>0.5754007697105408</v>
+        <v>0.0001581519900355488</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>0.1590018421411514</v>
+        <v>0.0001580305106472224</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B88">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.0002053030329989269</v>
+        <v>0.0001597858499735594</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B89">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0.0001740398874972016</v>
+        <v>0.0001597503141965717</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0.0001827214728109539</v>
+        <v>0.0001599073293618858</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>0.000175313776708208</v>
+        <v>0.0001598717935848981</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.0002050684561254457</v>
+        <v>0.0001587008446222171</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>0.0001666245225351304</v>
+        <v>0.0001591713953530416</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0.0001456885074730963</v>
+        <v>0.02839586511254311</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>0.000145187193993479</v>
+        <v>0.2888476252555847</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.002106526168063283</v>
+        <v>0.6978451013565063</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.2355164736509323</v>
+        <v>1.186953544616699</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.6936244368553162</v>
+        <v>1.690415859222412</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>1.215427398681641</v>
+        <v>2.031694889068604</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>1.662671446800232</v>
+        <v>2.131021976470947</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>2.067657470703125</v>
+        <v>2.022667169570923</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>2.348293304443359</v>
+        <v>1.731074690818787</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>2.534437894821167</v>
+        <v>1.546697378158569</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>2.574333906173706</v>
+        <v>1.443192005157471</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>2.491785049438477</v>
+        <v>1.172328233718872</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>2.303932189941406</v>
+        <v>0.7725421190261841</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>1.888572931289673</v>
+        <v>0.3717938959598541</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B108">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>1.344133615493774</v>
+        <v>0.0416686162352562</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>0.8297916650772095</v>
+        <v>0.0001574997149873525</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B110">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>0.4072135984897614</v>
+        <v>0.0001574997149873525</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B111">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>0.1029859259724617</v>
+        <v>0.0001574641792103648</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B112">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.0001868116087280214</v>
+        <v>0.0001579632953507826</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.0001540539669804275</v>
+        <v>0.0001580485695740208</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B114">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>0.0001602390402695164</v>
+        <v>0.0001580485695740208</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>0.000180451272171922</v>
+        <v>0.0001582748227519915</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>0.000159207804244943</v>
+        <v>0.0001579908566782251</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>0.0001589238381711766</v>
+        <v>0.0001579908566782251</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>0.0001584225828992203</v>
+        <v>0.05073581635951996</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>0.0001584225828992203</v>
+        <v>0.4426610767841339</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.002084082225337625</v>
+        <v>0.9739716053009033</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.2325144559144974</v>
+        <v>1.496549010276794</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.6881293058395386</v>
+        <v>1.937455177307129</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>1.209956288337708</v>
+        <v>2.26607871055603</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>1.662657022476196</v>
+        <v>2.454291343688965</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>2.068156003952026</v>
+        <v>2.518624544143677</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B126">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>2.348536014556885</v>
+        <v>2.426417112350464</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>2.509704828262329</v>
+        <v>2.22430682182312</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>2.378438949584961</v>
+        <v>1.869110822677612</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>2.120308637619019</v>
+        <v>1.40874719619751</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B130">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>1.802278995513916</v>
+        <v>0.8698223233222961</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B131">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>1.422817707061768</v>
+        <v>0.3838400840759277</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B132">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>0.9951586127281189</v>
+        <v>0.03600005432963371</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B133">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>0.6391035914421082</v>
+        <v>0.0001520569494459778</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B134">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>0.3911237716674805</v>
+        <v>0.0001592855987837538</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B135">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>0.1229539588093758</v>
+        <v>0.0001574997149873525</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B136">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.0001655514934100211</v>
+        <v>0.0001592550688656047</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B137">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>0.0001579118834342808</v>
+        <v>0.0001592550688656047</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B138">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>0.0001579118834342808</v>
+        <v>0.0001592550688656047</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>0.0001577072689542547</v>
+        <v>0.0001592550688656047</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>0.0001579515665071085</v>
+        <v>0.0001588766899658367</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.000159207804244943</v>
+        <v>0.0001589355670148507</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>0.000159207804244943</v>
+        <v>0.03099158406257629</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>0.000158829425345175</v>
+        <v>0.3658324480056763</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0.002126031322404742</v>
+        <v>0.9310064315795898</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0.1877221316099167</v>
+        <v>1.453940272331238</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.6351311802864075</v>
+        <v>1.874011278152466</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>1.196741104125977</v>
+        <v>2.2071533203125</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>1.680967807769775</v>
+        <v>2.404575109481812</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>2.087153196334839</v>
+        <v>2.475546836853027</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>2.370091438293457</v>
+        <v>2.396345615386963</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B151">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>2.54635214805603</v>
+        <v>2.210988283157349</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B152">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>2.546266317367554</v>
+        <v>1.854512333869934</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B153">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>2.501011848449707</v>
+        <v>1.430027604103088</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B154">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>2.322828531265259</v>
+        <v>0.9302888512611389</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B155">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>2.010493755340576</v>
+        <v>0.4438278377056122</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B156">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>1.609051823616028</v>
+        <v>0.04731463268399239</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B157">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>1.112701892852783</v>
+        <v>0.0002614939876366407</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B158">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>0.577181875705719</v>
+        <v>0.0002534138329792768</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B159">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>0.1685261279344559</v>
+        <v>0.0001628822064958513</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B160">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0.0001882358483271673</v>
+        <v>0.0002129689528374001</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B161">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.0001535946066724136</v>
+        <v>0.0001752521638991311</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B162">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>0.0001595613284735009</v>
+        <v>0.0001752521638991311</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.000159207804244943</v>
+        <v>0.0001589711027918383</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.0001589238381711766</v>
+        <v>0.0001589711027918383</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.0001589238381711766</v>
+        <v>0.0001589711027918383</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0.0001589238381711766</v>
+        <v>0.03319273889064789</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0.0001589238381711766</v>
+        <v>0.3788338899612427</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.002118383767083287</v>
+        <v>0.9135854840278625</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.2057216316461563</v>
+        <v>1.431447386741638</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.6891058683395386</v>
+        <v>1.864351987838745</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
+++ b/Transavia/Production/Results/Results_daily_Abator_Oiejdea.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>0.0002005199348786846</v>
+        <v>0.0002159072319045663</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>0.0002026544680120423</v>
+        <v>0.000215494103031233</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>1.948278903961182</v>
+        <v>0.0001718011917546391</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>1.870068311691284</v>
+        <v>2.309420108795166</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>1.662756681442261</v>
+        <v>2.487343788146973</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>1.374861121177673</v>
+        <v>2.531107187271118</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>1.175609350204468</v>
+        <v>2.341148614883423</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0.9332816004753113</v>
+        <v>2.135075092315674</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>0.6385995149612427</v>
+        <v>1.857563614845276</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0.3378545641899109</v>
+        <v>1.469853639602661</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0.04311482235789299</v>
+        <v>0.9691656827926636</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>0.0002345393586438149</v>
+        <v>0.4500027000904083</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0001749836810631678</v>
+        <v>0.05001300200819969</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.0001624542928766459</v>
+        <v>0.0001757534773787484</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0.000228477903874591</v>
+        <v>0.0001589711027918383</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0001912958396133035</v>
+        <v>0.0001589711027918383</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>0.0001577545335749164</v>
+        <v>0.0001589711027918383</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.0001579988311277702</v>
+        <v>0.0001589711027918383</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0.0001592550688656047</v>
+        <v>0.0001589711027918383</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0.0001592550688656047</v>
+        <v>0.0002220771857537329</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0.04244839027523994</v>
+        <v>0.0002293381257914007</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>0.349784791469574</v>
+        <v>0.0002293381257914007</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0.79013592004776</v>
+        <v>0.04908135160803795</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>1.184518575668335</v>
+        <v>0.4247835278511047</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>1.534364104270935</v>
+        <v>0.9875454306602478</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>1.794179081916809</v>
+        <v>1.508852958679199</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>1.938094139099121</v>
+        <v>1.917119860649109</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>2.002877950668335</v>
+        <v>2.234871864318848</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>1.997236132621765</v>
+        <v>2.399228811264038</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>1.936636805534363</v>
+        <v>2.478945732116699</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>1.653717875480652</v>
+        <v>2.334848642349243</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>1.225124001502991</v>
+        <v>2.064053058624268</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>0.7724766135215759</v>
+        <v>1.743575215339661</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>0.3822441399097443</v>
+        <v>1.324394941329956</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>0.04852451011538506</v>
+        <v>0.8493761420249939</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>0.0001520569494459778</v>
+        <v>0.4072339832782745</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.0001572158071212471</v>
+        <v>0.03731689602136612</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.0001572158071212471</v>
+        <v>0.0001854031870607287</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>0.0001588766899658367</v>
+        <v>0.0001832037960411981</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.000158841154188849</v>
+        <v>0.0001832037960411981</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0.0001580485695740208</v>
+        <v>0.0001919050700962543</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>0.0001585080026416108</v>
+        <v>0.0001699004496913403</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0.0001591713953530416</v>
+        <v>0.0001699004496913403</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0.0001591713953530416</v>
+        <v>0.0002213618718087673</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0.02247311174869537</v>
+        <v>0.0002425912389298901</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.208468034863472</v>
+        <v>0.0002427446015644819</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>0.4941886067390442</v>
+        <v>0.01598268747329712</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>0.8104725480079651</v>
+        <v>0.2351345419883728</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>1.186731934547424</v>
+        <v>0.587754487991333</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>1.476571202278137</v>
+        <v>0.9561572670936584</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>1.62332284450531</v>
+        <v>1.357282280921936</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>1.694435000419617</v>
+        <v>1.613393425941467</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>1.646882057189941</v>
+        <v>1.783894300460815</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>1.45395302772522</v>
+        <v>1.818718910217285</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>1.256271481513977</v>
+        <v>1.769705176353455</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>0.9966081380844116</v>
+        <v>1.612903237342834</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>0.6651232838630676</v>
+        <v>1.369444012641907</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>0.3161895871162415</v>
+        <v>1.109341502189636</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>0.0358719564974308</v>
+        <v>0.7556831836700439</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>0.0001611654151929542</v>
+        <v>0.3262889385223389</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.0001581519900355488</v>
+        <v>0.02755117975175381</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0.0001580305106472224</v>
+        <v>0.0002870110038202256</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>0.0001597858499735594</v>
+        <v>0.000228477903874591</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.0001599073293618858</v>
+        <v>0.0001912958396133035</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>0.0001599073293618858</v>
+        <v>0.0001597144873812795</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>0.0001597539521753788</v>
+        <v>0.0001597144873812795</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0.0001577189977979288</v>
+        <v>0.0001597144873812795</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>0.000158841154188849</v>
+        <v>0.0002233217819593847</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>0.04916399717330933</v>
+        <v>0.0002306182577740401</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.4271045029163361</v>
+        <v>0.0002308365947101265</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0.9755824208259583</v>
+        <v>0.02787054516375065</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>1.490224599838257</v>
+        <v>0.3470362424850464</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>1.891738891601562</v>
+        <v>0.8533006310462952</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>2.231437206268311</v>
+        <v>1.431806564331055</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>2.349239587783813</v>
+        <v>1.887662291526794</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>2.304383516311646</v>
+        <v>2.205590009689331</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>2.128531932830811</v>
+        <v>2.376113653182983</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>1.845899105072021</v>
+        <v>2.324141502380371</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>1.438829660415649</v>
+        <v>2.171872615814209</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C81">
-        <v>0.9395054578781128</v>
+        <v>1.968944430351257</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>0.52431321144104</v>
+        <v>1.670255780220032</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>0.21784508228302</v>
+        <v>1.272804975509644</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C84">
-        <v>0.02182049117982388</v>
+        <v>0.8110690712928772</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>0.0001581519900355488</v>
+        <v>0.3657746613025665</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0.0001581519900355488</v>
+        <v>0.03071045130491257</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>0.0001580305106472224</v>
+        <v>0.0001890129206003621</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>0.0001597858499735594</v>
+        <v>0.0002132194495061412</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.0001597503141965717</v>
+        <v>0.0001760374434525147</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>0.0001599073293618858</v>
+        <v>0.0001551014138385653</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>0.0001598717935848981</v>
+        <v>0.0001592550688656047</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>0.0001587008446222171</v>
+        <v>0.0001592550688656047</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>0.0001591713953530416</v>
+        <v>0.0002224841446150094</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.02839586511254311</v>
+        <v>0.0002298748586326838</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>0.2888476252555847</v>
+        <v>0.0002298748586326838</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>0.6978451013565063</v>
+        <v>0.02787147834897041</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>1.186953544616699</v>
+        <v>0.3808231949806213</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>1.690415859222412</v>
+        <v>0.93166583776474</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>2.031694889068604</v>
+        <v>1.440503478050232</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>2.131021976470947</v>
+        <v>1.864176630973816</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>2.022667169570923</v>
+        <v>2.174628019332886</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102">
-        <v>1.731074690818787</v>
+        <v>2.363897085189819</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>1.546697378158569</v>
+        <v>2.236251831054688</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>1.443192005157471</v>
+        <v>1.937966823577881</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>1.172328233718872</v>
+        <v>1.716369867324829</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C106">
-        <v>0.7725421190261841</v>
+        <v>1.491530418395996</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B107">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C107">
-        <v>0.3717938959598541</v>
+        <v>1.138970136642456</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C108">
-        <v>0.0416686162352562</v>
+        <v>0.7175154089927673</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C109">
-        <v>0.0001574997149873525</v>
+        <v>0.317530483007431</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.0001574997149873525</v>
+        <v>0.02098614349961281</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B111">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>0.0001574641792103648</v>
+        <v>0.0001854031870607287</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>0.0001579632953507826</v>
+        <v>0.0003309372987132519</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.0001580485695740208</v>
+        <v>0.0003309372987132519</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>0.0001580485695740208</v>
+        <v>0.0001622678973944858</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>0.0001582748227519915</v>
+        <v>0.0001622678973944858</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>0.0001579908566782251</v>
+        <v>0.000191999482922256</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>0.0001579908566782251</v>
+        <v>0.0002184247568948194</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>0.05073581635951996</v>
+        <v>0.0001744336477713659</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>0.4426610767841339</v>
+        <v>0.0002298748586326838</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>0.9739716053009033</v>
+        <v>0.02761777676641941</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>1.496549010276794</v>
+        <v>0.3683164417743683</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>1.937455177307129</v>
+        <v>0.9333381056785583</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123">
-        <v>2.26607871055603</v>
+        <v>1.43657922744751</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>2.454291343688965</v>
+        <v>1.865858793258667</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>2.518624544143677</v>
+        <v>2.178643941879272</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C126">
-        <v>2.426417112350464</v>
+        <v>2.368526220321655</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>2.22430682182312</v>
+        <v>2.421094179153442</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B128">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>1.869110822677612</v>
+        <v>2.358757495880127</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C129">
-        <v>1.40874719619751</v>
+        <v>2.160920858383179</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B130">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C130">
-        <v>0.8698223233222961</v>
+        <v>1.830565690994263</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C131">
-        <v>0.3838400840759277</v>
+        <v>1.401669144630432</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>0.03600005432963371</v>
+        <v>0.9187883734703064</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B133">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C133">
-        <v>0.0001520569494459778</v>
+        <v>0.4097225368022919</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B134">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>0.0001592855987837538</v>
+        <v>0.02641727402806282</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B135">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>0.0001574997149873525</v>
+        <v>-0.001216726959683001</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C136">
-        <v>0.0001592550688656047</v>
+        <v>-0.0008747274405322969</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0.0001592550688656047</v>
+        <v>0.0001734597899485379</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138">
-        <v>0.0001592550688656047</v>
+        <v>0.0001525236439192668</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C139">
-        <v>0.0001592550688656047</v>
+        <v>0.0002963017614092678</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>0.0001588766899658367</v>
+        <v>0.000162244847160764</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>0.0001589355670148507</v>
+        <v>0.0001973884354811162</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>0.03099158406257629</v>
+        <v>0.0002629035152494907</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C143">
-        <v>0.3658324480056763</v>
+        <v>0.0001744336477713659</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>0.9310064315795898</v>
+        <v>0.02765432000160217</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C145">
-        <v>1.453940272331238</v>
+        <v>0.3859272599220276</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B146">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C146">
-        <v>1.874011278152466</v>
+        <v>0.9133966565132141</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147">
-        <v>2.2071533203125</v>
+        <v>1.428214550018311</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C148">
-        <v>2.404575109481812</v>
+        <v>1.841737627983093</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>2.475546836853027</v>
+        <v>2.170807361602783</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C150">
-        <v>2.396345615386963</v>
+        <v>2.357166528701782</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>2.210988283157349</v>
+        <v>2.418292045593262</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C152">
-        <v>1.854512333869934</v>
+        <v>2.357166290283203</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B153">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C153">
-        <v>1.430027604103088</v>
+        <v>2.161070108413696</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B154">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C154">
-        <v>0.9302888512611389</v>
+        <v>1.829155564308167</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C155">
-        <v>0.4438278377056122</v>
+        <v>1.399100780487061</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B156">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C156">
-        <v>0.04731463268399239</v>
+        <v>0.8973998427391052</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B157">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C157">
-        <v>0.0002614939876366407</v>
+        <v>0.3774028122425079</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B158">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>0.0002534138329792768</v>
+        <v>0.02094236202538013</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B159">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>0.0001628822064958513</v>
+        <v>-0.0009601764031685889</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C160">
-        <v>0.0002129689528374001</v>
+        <v>-0.0008690731483511627</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>0.0001752521638991311</v>
+        <v>0.0001854031870607287</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>0.0001752521638991311</v>
+        <v>0.0003100012836512178</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>0.0001589711027918383</v>
+        <v>0.0001828760578064248</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>0.0001589711027918383</v>
+        <v>0.0001828760578064248</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>0.0001589711027918383</v>
+        <v>0.0002694337454158813</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B166">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>0.03319273889064789</v>
+        <v>0.000188260295544751</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>0.3788338899612427</v>
+        <v>0.0002289026451762766</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>0.9135854840278625</v>
+        <v>0.01968497782945633</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C169">
-        <v>1.431447386741638</v>
+        <v>0.3081214427947998</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C170">
-        <v>1.864351987838745</v>
+        <v>0.7891823649406433</v>
       </c>
     </row>
   </sheetData>
